--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="465">
   <si>
     <t>rarely</t>
   </si>
@@ -1062,18 +1062,374 @@
   </si>
   <si>
     <t>недавно</t>
+  </si>
+  <si>
+    <t>marital status</t>
+  </si>
+  <si>
+    <t>forehead</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>heel</t>
+  </si>
+  <si>
+    <t>п'ята</t>
+  </si>
+  <si>
+    <t>thigh</t>
+  </si>
+  <si>
+    <t>стегно</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>великий палець</t>
+  </si>
+  <si>
+    <t>waist</t>
+  </si>
+  <si>
+    <t>талія</t>
+  </si>
+  <si>
+    <t>лікоть</t>
+  </si>
+  <si>
+    <t>лоб</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
+  </si>
+  <si>
+    <t>чудовий</t>
+  </si>
+  <si>
+    <t>scruffy</t>
+  </si>
+  <si>
+    <t>неохайний</t>
+  </si>
+  <si>
+    <t>elderly</t>
+  </si>
+  <si>
+    <t>in her early twenties</t>
+  </si>
+  <si>
+    <t>in his late thirties</t>
+  </si>
+  <si>
+    <t>in their mid fourties</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>низький</t>
+  </si>
+  <si>
+    <t>medium height</t>
+  </si>
+  <si>
+    <t>slim</t>
+  </si>
+  <si>
+    <t>стрункий</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>fringe</t>
+  </si>
+  <si>
+    <t>чубчик</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>рудий</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>сивий</t>
+  </si>
+  <si>
+    <t>shoulder-length</t>
+  </si>
+  <si>
+    <t>pale complexion</t>
+  </si>
+  <si>
+    <t>tanned complection</t>
+  </si>
+  <si>
+    <t>засмаглий</t>
+  </si>
+  <si>
+    <t>блідий</t>
+  </si>
+  <si>
+    <t>wrinkles</t>
+  </si>
+  <si>
+    <t>зморшки</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>boxer shorts</t>
+  </si>
+  <si>
+    <t>pants</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>briefcase</t>
+  </si>
+  <si>
+    <t>high heels</t>
+  </si>
+  <si>
+    <t>trainers</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>поєднати</t>
+  </si>
+  <si>
+    <t>bossy</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>careless</t>
+  </si>
+  <si>
+    <t>необережний</t>
+  </si>
+  <si>
+    <t>безтурботний</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>нудний, тупий</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>корисний</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>незрілий</t>
+  </si>
+  <si>
+    <t>lively</t>
+  </si>
+  <si>
+    <t>жвавий</t>
+  </si>
+  <si>
+    <t>mature</t>
+  </si>
+  <si>
+    <t>зрілий</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>акуратний</t>
+  </si>
+  <si>
+    <t>polite</t>
+  </si>
+  <si>
+    <t>rebellious</t>
+  </si>
+  <si>
+    <t>неслухняний</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>надійний</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>стриманий</t>
+  </si>
+  <si>
+    <t>sociable</t>
+  </si>
+  <si>
+    <t>stubborn</t>
+  </si>
+  <si>
+    <t>впертий</t>
+  </si>
+  <si>
+    <t>talkative</t>
+  </si>
+  <si>
+    <t>tidy</t>
+  </si>
+  <si>
+    <t>vain</t>
+  </si>
+  <si>
+    <t>зарозумілий</t>
+  </si>
+  <si>
+    <t>spend time outdoors</t>
+  </si>
+  <si>
+    <t>fall out with someone</t>
+  </si>
+  <si>
+    <t>get on well with sb</t>
+  </si>
+  <si>
+    <t>have a row</t>
+  </si>
+  <si>
+    <t>посперечатись</t>
+  </si>
+  <si>
+    <t>have an argument</t>
+  </si>
+  <si>
+    <t>look forward to sth</t>
+  </si>
+  <si>
+    <t>сімейний стан</t>
+  </si>
+  <si>
+    <t>похилого віку</t>
+  </si>
+  <si>
+    <t>на початку 20х</t>
+  </si>
+  <si>
+    <t>в кінці 30х</t>
+  </si>
+  <si>
+    <t>в середині 40х</t>
+  </si>
+  <si>
+    <t>середнього зросту</t>
+  </si>
+  <si>
+    <t>світловолосий</t>
+  </si>
+  <si>
+    <t>довжиною до плеча</t>
+  </si>
+  <si>
+    <t>труси</t>
+  </si>
+  <si>
+    <t>звичний, щоденний</t>
+  </si>
+  <si>
+    <t>штани теплі</t>
+  </si>
+  <si>
+    <t>штани брюки</t>
+  </si>
+  <si>
+    <t>портфель</t>
+  </si>
+  <si>
+    <t>високі підбори</t>
+  </si>
+  <si>
+    <t>кросівки для бігу</t>
+  </si>
+  <si>
+    <t>suit (fit)</t>
+  </si>
+  <si>
+    <t>годитися</t>
+  </si>
+  <si>
+    <t>владний</t>
+  </si>
+  <si>
+    <t>веселий</t>
+  </si>
+  <si>
+    <t>carefree</t>
+  </si>
+  <si>
+    <t>ввічливий</t>
+  </si>
+  <si>
+    <t>комунікабельний</t>
+  </si>
+  <si>
+    <t>балакучий</t>
+  </si>
+  <si>
+    <t>охайний</t>
+  </si>
+  <si>
+    <t>проводити час на свіжому повітрі</t>
+  </si>
+  <si>
+    <t>посваритись з кимось</t>
+  </si>
+  <si>
+    <t>ладити з ким небудь</t>
+  </si>
+  <si>
+    <t>мати суперечку</t>
+  </si>
+  <si>
+    <t>з нетерпінням чекати на щось</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1123,16 +1479,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,14 +1800,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1679,6 +2039,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1699,6 +2065,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>361</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1719,6 +2091,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,6 +2117,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>353</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1759,6 +2143,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1779,6 +2169,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>357</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1799,6 +2195,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +2220,13 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>363</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +2246,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>365</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1858,7 +2272,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +2298,13 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>438</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1898,7 +2324,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1912,7 +2344,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>76</v>
       </c>
@@ -1926,7 +2364,13 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>79</v>
       </c>
@@ -1940,7 +2384,13 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>81</v>
       </c>
@@ -1954,7 +2404,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>374</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>84</v>
       </c>
@@ -1968,7 +2424,13 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1982,7 +2444,13 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1996,7 +2464,13 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>93</v>
       </c>
@@ -2010,7 +2484,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>381</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>95</v>
       </c>
@@ -2024,7 +2504,13 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2038,7 +2524,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>99</v>
       </c>
@@ -2052,7 +2544,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="4:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2066,7 +2564,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>104</v>
       </c>
@@ -2080,7 +2584,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>445</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>107</v>
       </c>
@@ -2094,7 +2604,13 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>110</v>
       </c>
@@ -2108,7 +2624,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>113</v>
       </c>
@@ -2122,7 +2644,13 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>115</v>
       </c>
@@ -2136,7 +2664,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>118</v>
       </c>
@@ -2150,7 +2684,13 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>121</v>
       </c>
@@ -2164,7 +2704,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2724,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>125</v>
       </c>
@@ -2192,7 +2744,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>127</v>
       </c>
@@ -2206,7 +2764,13 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>453</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>130</v>
       </c>
@@ -2220,7 +2784,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>132</v>
       </c>
@@ -2234,7 +2804,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>401</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>133</v>
       </c>
@@ -2248,7 +2824,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>15</v>
       </c>
@@ -2262,7 +2844,13 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>137</v>
       </c>
@@ -2276,7 +2864,13 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>139</v>
       </c>
@@ -2290,7 +2884,13 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>141</v>
       </c>
@@ -2304,7 +2904,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>142</v>
       </c>
@@ -2318,7 +2924,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>146</v>
       </c>
@@ -2332,7 +2944,13 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>147</v>
       </c>
@@ -2346,7 +2964,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>149</v>
       </c>
@@ -2360,7 +2984,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>151</v>
       </c>
@@ -2374,7 +3004,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>419</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>153</v>
       </c>
@@ -2388,7 +3024,13 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>156</v>
       </c>
@@ -2402,7 +3044,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>457</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>157</v>
       </c>
@@ -2416,7 +3064,13 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>158</v>
       </c>
@@ -2430,7 +3084,13 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>159</v>
       </c>
@@ -2444,7 +3104,13 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>162</v>
       </c>
@@ -2458,7 +3124,13 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>165</v>
       </c>
@@ -2472,7 +3144,13 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>460</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>168</v>
       </c>
@@ -2486,7 +3164,13 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>170</v>
       </c>
@@ -2500,7 +3184,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2514,7 +3204,13 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>174</v>
       </c>
@@ -2528,7 +3224,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>342</v>
       </c>
@@ -2542,7 +3244,13 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>464</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>177</v>
       </c>
@@ -2556,7 +3264,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G68" s="1" t="s">
         <v>178</v>
       </c>
@@ -2570,7 +3278,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G69" s="1" t="s">
         <v>181</v>
       </c>
@@ -2584,7 +3292,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G70" s="1" t="s">
         <v>183</v>
       </c>
@@ -2598,7 +3306,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
         <v>185</v>
       </c>
@@ -2612,7 +3320,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G72" s="1" t="s">
         <v>188</v>
       </c>
@@ -2626,7 +3334,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G73" s="1" t="s">
         <v>189</v>
       </c>
@@ -2640,7 +3348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G74" s="1" t="s">
         <v>192</v>
       </c>
@@ -2654,7 +3362,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G75" s="1" t="s">
         <v>194</v>
       </c>
@@ -2668,7 +3376,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G76" s="1" t="s">
         <v>196</v>
       </c>
@@ -2682,7 +3390,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G77" s="1" t="s">
         <v>198</v>
       </c>
@@ -2696,7 +3404,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G78" s="1" t="s">
         <v>201</v>
       </c>
@@ -2710,7 +3418,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G79" s="1" t="s">
         <v>203</v>
       </c>
@@ -2724,7 +3432,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G80" s="1" t="s">
         <v>205</v>
       </c>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="509">
   <si>
     <t>rarely</t>
   </si>
@@ -1410,18 +1410,158 @@
   </si>
   <si>
     <t>з нетерпінням чекати на щось</t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>підкреслювати, наголошувати</t>
+  </si>
+  <si>
+    <t>whether</t>
+  </si>
+  <si>
+    <t xml:space="preserve">чи </t>
+  </si>
+  <si>
+    <t>hesitate</t>
+  </si>
+  <si>
+    <t>вагатися</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>розумовий, психічний</t>
+  </si>
+  <si>
+    <t>revise</t>
+  </si>
+  <si>
+    <t>переглядати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross out </t>
+  </si>
+  <si>
+    <t>draw a line through sth written</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look up </t>
+  </si>
+  <si>
+    <t>try to find information in a book, etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point out </t>
+  </si>
+  <si>
+    <t>tell sb important information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read out </t>
+  </si>
+  <si>
+    <t>say sth out loud which you are reading</t>
+  </si>
+  <si>
+    <t>rip up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tear into pieces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rub out </t>
+  </si>
+  <si>
+    <t>remove with a rubber</t>
+  </si>
+  <si>
+    <t>turn over</t>
+  </si>
+  <si>
+    <t>turn sth so the other side is towards you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write down </t>
+  </si>
+  <si>
+    <t>write information on a piece of paper</t>
+  </si>
+  <si>
+    <t>for instance</t>
+  </si>
+  <si>
+    <t>наприклад</t>
+  </si>
+  <si>
+    <t>refer</t>
+  </si>
+  <si>
+    <t>посилатися</t>
+  </si>
+  <si>
+    <t>concentrate</t>
+  </si>
+  <si>
+    <t>зосереджуватись</t>
+  </si>
+  <si>
+    <t>bring up</t>
+  </si>
+  <si>
+    <t>виховувати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertisement </t>
+  </si>
+  <si>
+    <t>реклама</t>
+  </si>
+  <si>
+    <t>divide</t>
+  </si>
+  <si>
+    <t>ділити</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>поділ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simplify </t>
+  </si>
+  <si>
+    <t>спрощувати</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capable of </t>
+  </si>
+  <si>
+    <t>здатний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1479,15 +1619,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1800,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1826,23 +1970,23 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7"/>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2039,10 +2183,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>436</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2065,10 +2209,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2091,10 +2235,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2117,10 +2261,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>353</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2143,10 +2287,10 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>355</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2169,10 +2313,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>357</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2195,10 +2339,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2221,10 +2365,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>363</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2247,10 +2391,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>365</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2273,10 +2417,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>437</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2299,10 +2443,10 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>438</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2325,10 +2469,10 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>439</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2345,10 +2489,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>440</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -2365,10 +2509,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>371</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2385,10 +2529,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>441</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2405,10 +2549,10 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>374</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2425,19 +2569,19 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>442</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="8" t="s">
         <v>89</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2445,10 +2589,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2465,10 +2609,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>379</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2485,10 +2629,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>381</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2505,10 +2649,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>443</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2525,10 +2669,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>386</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2545,10 +2689,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>385</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2565,10 +2709,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>388</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2585,10 +2729,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>445</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2605,10 +2749,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>444</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2625,10 +2769,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>446</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2645,10 +2789,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>447</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2665,10 +2809,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>448</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2685,10 +2829,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>449</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2705,10 +2849,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>450</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2725,10 +2869,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>397</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2745,10 +2889,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2765,10 +2909,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>453</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2785,10 +2929,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>454</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2805,10 +2949,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2828,7 +2972,7 @@
       <c r="A46" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>402</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2845,10 +2989,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>404</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2865,10 +3009,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>406</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2885,10 +3029,10 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>408</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2905,10 +3049,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>410</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2925,10 +3069,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>412</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2945,10 +3089,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>414</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2965,10 +3109,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>456</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2985,10 +3129,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>417</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3005,10 +3149,10 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>419</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3025,10 +3169,10 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>421</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3045,10 +3189,10 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>457</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3065,10 +3209,10 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>424</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3085,10 +3229,10 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>458</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3105,10 +3249,10 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>459</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3125,10 +3269,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>428</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3145,10 +3289,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>460</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3165,10 +3309,10 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>461</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3185,10 +3329,10 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>462</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3205,10 +3349,10 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3225,10 +3369,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>463</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -3245,10 +3389,10 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>464</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -3264,7 +3408,13 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>178</v>
       </c>
@@ -3279,6 +3429,12 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>468</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>181</v>
       </c>
@@ -3293,6 +3449,12 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>470</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>183</v>
       </c>
@@ -3307,6 +3469,12 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>472</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>185</v>
       </c>
@@ -3321,6 +3489,12 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>188</v>
       </c>
@@ -3335,6 +3509,12 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>189</v>
       </c>
@@ -3349,6 +3529,12 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>192</v>
       </c>
@@ -3363,6 +3549,12 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>480</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>194</v>
       </c>
@@ -3377,6 +3569,12 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>482</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>196</v>
       </c>
@@ -3391,6 +3589,12 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>484</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>198</v>
       </c>
@@ -3405,6 +3609,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>201</v>
       </c>
@@ -3419,6 +3629,12 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>488</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>203</v>
       </c>
@@ -3433,6 +3649,12 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>205</v>
       </c>
@@ -3446,7 +3668,13 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>492</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>207</v>
       </c>
@@ -3460,7 +3688,13 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>494</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>210</v>
       </c>
@@ -3474,7 +3708,13 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>496</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>212</v>
       </c>
@@ -3488,7 +3728,13 @@
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>498</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>215</v>
       </c>
@@ -3502,7 +3748,13 @@
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>218</v>
       </c>
@@ -3516,7 +3768,13 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>502</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>220</v>
       </c>
@@ -3530,7 +3788,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>223</v>
       </c>
@@ -3544,7 +3808,13 @@
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>506</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>23</v>
       </c>
@@ -3558,7 +3828,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>508</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>226</v>
       </c>
@@ -3572,7 +3848,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
         <v>24</v>
       </c>
@@ -3586,7 +3862,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G91" s="1" t="s">
         <v>230</v>
       </c>
@@ -3600,7 +3876,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G92" s="1" t="s">
         <v>233</v>
       </c>
@@ -3614,7 +3890,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G93" s="1" t="s">
         <v>236</v>
       </c>
@@ -3628,7 +3904,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="7:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G94" s="1" t="s">
         <v>238</v>
       </c>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lesson 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lesson 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="542">
   <si>
     <t>rarely</t>
   </si>
@@ -1442,54 +1442,6 @@
     <t>переглядати</t>
   </si>
   <si>
-    <t xml:space="preserve">cross out </t>
-  </si>
-  <si>
-    <t>draw a line through sth written</t>
-  </si>
-  <si>
-    <t xml:space="preserve">look up </t>
-  </si>
-  <si>
-    <t>try to find information in a book, etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">point out </t>
-  </si>
-  <si>
-    <t>tell sb important information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read out </t>
-  </si>
-  <si>
-    <t>say sth out loud which you are reading</t>
-  </si>
-  <si>
-    <t>rip up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tear into pieces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">rub out </t>
-  </si>
-  <si>
-    <t>remove with a rubber</t>
-  </si>
-  <si>
-    <t>turn over</t>
-  </si>
-  <si>
-    <t>turn sth so the other side is towards you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">write down </t>
-  </si>
-  <si>
-    <t>write information on a piece of paper</t>
-  </si>
-  <si>
     <t>for instance</t>
   </si>
   <si>
@@ -1542,18 +1494,173 @@
   </si>
   <si>
     <t>здатний</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>розглянути</t>
+  </si>
+  <si>
+    <t>degree</t>
+  </si>
+  <si>
+    <t>ступінь</t>
+  </si>
+  <si>
+    <t>arrangements</t>
+  </si>
+  <si>
+    <t>плани, заходи</t>
+  </si>
+  <si>
+    <t>intentions</t>
+  </si>
+  <si>
+    <t>наміри</t>
+  </si>
+  <si>
+    <t>Verbs of motion</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jet lag </t>
+  </si>
+  <si>
+    <t>часовий пояс</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>convenient</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>ferry</t>
+  </si>
+  <si>
+    <t>harbour</t>
+  </si>
+  <si>
+    <t>nearby</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>suitable for</t>
+  </si>
+  <si>
+    <t>проживання, розміщення</t>
+  </si>
+  <si>
+    <t>зручний</t>
+  </si>
+  <si>
+    <t>переповнений</t>
+  </si>
+  <si>
+    <t>затримка</t>
+  </si>
+  <si>
+    <t>пором</t>
+  </si>
+  <si>
+    <t>гавань</t>
+  </si>
+  <si>
+    <t>поруч</t>
+  </si>
+  <si>
+    <t>дійти, дотягнутись</t>
+  </si>
+  <si>
+    <t>курорт</t>
+  </si>
+  <si>
+    <t>транспортний засіб</t>
+  </si>
+  <si>
+    <t>прямий</t>
+  </si>
+  <si>
+    <t>підходить для</t>
+  </si>
+  <si>
+    <t>rough (raf)</t>
+  </si>
+  <si>
+    <t>грубий</t>
+  </si>
+  <si>
+    <t>on schedule</t>
+  </si>
+  <si>
+    <t>за графіком</t>
+  </si>
+  <si>
+    <t>хоча</t>
+  </si>
+  <si>
+    <t xml:space="preserve">although </t>
+  </si>
+  <si>
+    <t>замість</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instead </t>
+  </si>
+  <si>
+    <t>the departure lounge</t>
+  </si>
+  <si>
+    <t>зал вильоту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appointment </t>
+  </si>
+  <si>
+    <t>місце призначення</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1598,6 +1705,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1619,22 +1733,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1944,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1970,23 +2089,23 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="9"/>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
@@ -2394,7 +2513,7 @@
       <c r="A18" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2552,7 +2671,7 @@
       <c r="A25" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>374</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2578,10 +2697,10 @@
       <c r="G26" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2692,7 +2811,7 @@
       <c r="A32" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>385</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2872,7 +2991,7 @@
       <c r="A41" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>397</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2892,7 +3011,7 @@
       <c r="A42" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="6" t="s">
         <v>452</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2972,7 +3091,7 @@
       <c r="A46" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>402</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3009,7 +3128,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -3152,7 +3271,7 @@
       <c r="A55" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>419</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3212,7 +3331,7 @@
       <c r="A58" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>424</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3312,7 +3431,7 @@
       <c r="A63" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>461</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3332,7 +3451,7 @@
       <c r="A64" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>462</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3352,7 +3471,7 @@
       <c r="A65" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="6" t="s">
         <v>433</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3412,7 +3531,7 @@
       <c r="A68" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>466</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -3432,7 +3551,7 @@
       <c r="A69" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="6" t="s">
         <v>468</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -3452,7 +3571,7 @@
       <c r="A70" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>470</v>
       </c>
       <c r="G70" s="1" t="s">
@@ -3472,7 +3591,7 @@
       <c r="A71" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>472</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -3492,7 +3611,7 @@
       <c r="A72" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="2" t="s">
         <v>474</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -3509,10 +3628,10 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>476</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -3529,10 +3648,10 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>478</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -3549,10 +3668,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
         <v>480</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -3569,10 +3688,10 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="2" t="s">
         <v>482</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -3589,10 +3708,10 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="2" t="s">
         <v>484</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -3609,10 +3728,10 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="6" t="s">
         <v>486</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -3629,10 +3748,10 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="2" t="s">
         <v>488</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -3649,10 +3768,10 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>490</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -3669,10 +3788,10 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="6" t="s">
         <v>492</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -3692,7 +3811,7 @@
       <c r="A82" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="2" t="s">
         <v>494</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -3712,7 +3831,7 @@
       <c r="A83" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="2" t="s">
         <v>496</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -3729,12 +3848,6 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>498</v>
-      </c>
       <c r="G84" s="1" t="s">
         <v>215</v>
       </c>
@@ -3749,12 +3862,6 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>500</v>
-      </c>
       <c r="G85" s="1" t="s">
         <v>218</v>
       </c>
@@ -3769,12 +3876,6 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>502</v>
-      </c>
       <c r="G86" s="1" t="s">
         <v>220</v>
       </c>
@@ -3789,12 +3890,6 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>504</v>
-      </c>
       <c r="G87" s="1" t="s">
         <v>223</v>
       </c>
@@ -3809,12 +3904,6 @@
       </c>
     </row>
     <row r="88" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>506</v>
-      </c>
       <c r="G88" s="1" t="s">
         <v>23</v>
       </c>
@@ -3829,12 +3918,6 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>508</v>
-      </c>
       <c r="G89" s="1" t="s">
         <v>226</v>
       </c>
@@ -3931,12 +4014,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="10"/>
+    <col min="4" max="4" width="10" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="802">
   <si>
     <t>rarely</t>
   </si>
@@ -1641,6 +1641,786 @@
   </si>
   <si>
     <t>місце призначення</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>заносити в книгу</t>
+  </si>
+  <si>
+    <t>attic</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>downstairs</t>
+  </si>
+  <si>
+    <t>fence</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>lawn</t>
+  </si>
+  <si>
+    <t>letterbox</t>
+  </si>
+  <si>
+    <t>loft</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>upstairs</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>central heating</t>
+  </si>
+  <si>
+    <t>curtain</t>
+  </si>
+  <si>
+    <t>household appliance</t>
+  </si>
+  <si>
+    <t>light bulb</t>
+  </si>
+  <si>
+    <t>net curtain</t>
+  </si>
+  <si>
+    <t>radiator</t>
+  </si>
+  <si>
+    <t>windowsill</t>
+  </si>
+  <si>
+    <t>bath</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>towel</t>
+  </si>
+  <si>
+    <t>washbasin</t>
+  </si>
+  <si>
+    <t>washing machine</t>
+  </si>
+  <si>
+    <t>bedside table</t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>chest of drawers</t>
+  </si>
+  <si>
+    <t>dressing table</t>
+  </si>
+  <si>
+    <t>pillow</t>
+  </si>
+  <si>
+    <t>rug</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>shelf</t>
+  </si>
+  <si>
+    <t>wardrobe</t>
+  </si>
+  <si>
+    <t>audio system</t>
+  </si>
+  <si>
+    <t>bookcase</t>
+  </si>
+  <si>
+    <t>coffee table</t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>fireplace</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>sofa</t>
+  </si>
+  <si>
+    <t>wallpaper</t>
+  </si>
+  <si>
+    <t>cooker</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>dishwasher</t>
+  </si>
+  <si>
+    <t>freezer</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>kitchen table</t>
+  </si>
+  <si>
+    <t>microwave oven</t>
+  </si>
+  <si>
+    <t>oven</t>
+  </si>
+  <si>
+    <t>running water</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>doorbell</t>
+  </si>
+  <si>
+    <t>doormat</t>
+  </si>
+  <si>
+    <t>apartment</t>
+  </si>
+  <si>
+    <t>bedsit</t>
+  </si>
+  <si>
+    <t>bungalow</t>
+  </si>
+  <si>
+    <t>cottage</t>
+  </si>
+  <si>
+    <t>detached house</t>
+  </si>
+  <si>
+    <t>farmhouse</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>high rise</t>
+  </si>
+  <si>
+    <t>mansion</t>
+  </si>
+  <si>
+    <t>skyscraper</t>
+  </si>
+  <si>
+    <t>terraced house</t>
+  </si>
+  <si>
+    <t>cosy</t>
+  </si>
+  <si>
+    <t>fitted kitchen</t>
+  </si>
+  <si>
+    <t>furnished</t>
+  </si>
+  <si>
+    <t>modern</t>
+  </si>
+  <si>
+    <t>recently renovated</t>
+  </si>
+  <si>
+    <t>roomy</t>
+  </si>
+  <si>
+    <t>spacious</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>conveniently located</t>
+  </si>
+  <si>
+    <t>countryside</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>home town</t>
+  </si>
+  <si>
+    <t>inhabitant</t>
+  </si>
+  <si>
+    <t>neighbourhood</t>
+  </si>
+  <si>
+    <t>next-door nighbour</t>
+  </si>
+  <si>
+    <t>resident</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>slums</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>viev</t>
+  </si>
+  <si>
+    <t>electricity bill</t>
+  </si>
+  <si>
+    <t>estate agent</t>
+  </si>
+  <si>
+    <t>flatmate</t>
+  </si>
+  <si>
+    <t>let a flat</t>
+  </si>
+  <si>
+    <t>pay in advance</t>
+  </si>
+  <si>
+    <t>pay the bills</t>
+  </si>
+  <si>
+    <t>pay the rent</t>
+  </si>
+  <si>
+    <t>rent a flat</t>
+  </si>
+  <si>
+    <t>roommate</t>
+  </si>
+  <si>
+    <t>clear up the mess</t>
+  </si>
+  <si>
+    <t>do the cooking</t>
+  </si>
+  <si>
+    <t>do the housework</t>
+  </si>
+  <si>
+    <t>do the ironing</t>
+  </si>
+  <si>
+    <t>do the washing-up</t>
+  </si>
+  <si>
+    <t>vacuum the floor</t>
+  </si>
+  <si>
+    <t>be at home</t>
+  </si>
+  <si>
+    <t>be in</t>
+  </si>
+  <si>
+    <t>commute</t>
+  </si>
+  <si>
+    <t>feel homesick</t>
+  </si>
+  <si>
+    <t>leave the house</t>
+  </si>
+  <si>
+    <t>lock the door</t>
+  </si>
+  <si>
+    <t>move house</t>
+  </si>
+  <si>
+    <t>share a flat</t>
+  </si>
+  <si>
+    <t>stay in</t>
+  </si>
+  <si>
+    <t>stay out</t>
+  </si>
+  <si>
+    <t>льох</t>
+  </si>
+  <si>
+    <t>підвал</t>
+  </si>
+  <si>
+    <t>на нижньому поверсі</t>
+  </si>
+  <si>
+    <t>підїзна алея</t>
+  </si>
+  <si>
+    <t>огорожа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гараж </t>
+  </si>
+  <si>
+    <t>мансарда</t>
+  </si>
+  <si>
+    <t>газон</t>
+  </si>
+  <si>
+    <t>поштова скринька</t>
+  </si>
+  <si>
+    <t>голубник</t>
+  </si>
+  <si>
+    <t>сходова клітка</t>
+  </si>
+  <si>
+    <t>верхній поверх</t>
+  </si>
+  <si>
+    <t>штора, жалюзі</t>
+  </si>
+  <si>
+    <t>килим</t>
+  </si>
+  <si>
+    <t>центральне опалення</t>
+  </si>
+  <si>
+    <t>штора, занавіса</t>
+  </si>
+  <si>
+    <t>побутова техніка</t>
+  </si>
+  <si>
+    <t>електрична лампочка</t>
+  </si>
+  <si>
+    <t>москітна сітка</t>
+  </si>
+  <si>
+    <t>батарея</t>
+  </si>
+  <si>
+    <t>підвіконня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ванна </t>
+  </si>
+  <si>
+    <t>мило</t>
+  </si>
+  <si>
+    <t>кран</t>
+  </si>
+  <si>
+    <t>зубна щітка</t>
+  </si>
+  <si>
+    <t>рушник</t>
+  </si>
+  <si>
+    <t>умивальник</t>
+  </si>
+  <si>
+    <t>пральна машина</t>
+  </si>
+  <si>
+    <t>тумбочка</t>
+  </si>
+  <si>
+    <t>ковдра</t>
+  </si>
+  <si>
+    <t>комод</t>
+  </si>
+  <si>
+    <t>туалетний столик</t>
+  </si>
+  <si>
+    <t>подушка</t>
+  </si>
+  <si>
+    <t>килимок, плед</t>
+  </si>
+  <si>
+    <t>простирадло</t>
+  </si>
+  <si>
+    <t>полиця</t>
+  </si>
+  <si>
+    <t>шафа</t>
+  </si>
+  <si>
+    <t>аудіосистема</t>
+  </si>
+  <si>
+    <t>книжкова полиця</t>
+  </si>
+  <si>
+    <t>журнальний столик</t>
+  </si>
+  <si>
+    <t>камін</t>
+  </si>
+  <si>
+    <t>меблі</t>
+  </si>
+  <si>
+    <t>диван, кушетка</t>
+  </si>
+  <si>
+    <t>диван, софа</t>
+  </si>
+  <si>
+    <t>шпалери</t>
+  </si>
+  <si>
+    <t>плита</t>
+  </si>
+  <si>
+    <t>сервант</t>
+  </si>
+  <si>
+    <t>посудомийка</t>
+  </si>
+  <si>
+    <t>морозилка</t>
+  </si>
+  <si>
+    <t>холодильник</t>
+  </si>
+  <si>
+    <t>кухонний стіл</t>
+  </si>
+  <si>
+    <t>мікрохвильова піч</t>
+  </si>
+  <si>
+    <t>піч, духовка</t>
+  </si>
+  <si>
+    <t>протічна вода</t>
+  </si>
+  <si>
+    <t>раковина</t>
+  </si>
+  <si>
+    <t>дверний дзвінок</t>
+  </si>
+  <si>
+    <t>климок</t>
+  </si>
+  <si>
+    <t>квартира, кімната</t>
+  </si>
+  <si>
+    <t>житлова кімната</t>
+  </si>
+  <si>
+    <t>одноповерхова дача</t>
+  </si>
+  <si>
+    <t>котедж, дача</t>
+  </si>
+  <si>
+    <t>окремий будинок</t>
+  </si>
+  <si>
+    <t>фермерський будинок</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>багатоповерховий будинок</t>
+  </si>
+  <si>
+    <t>особняк</t>
+  </si>
+  <si>
+    <t>хмарочос</t>
+  </si>
+  <si>
+    <t>будинок із верандою</t>
+  </si>
+  <si>
+    <t>світлий</t>
+  </si>
+  <si>
+    <t>затишний</t>
+  </si>
+  <si>
+    <t>вмонтована кухня</t>
+  </si>
+  <si>
+    <t>мебльований</t>
+  </si>
+  <si>
+    <t>сучасний</t>
+  </si>
+  <si>
+    <t>нещодавно відремонтований</t>
+  </si>
+  <si>
+    <t>місткий</t>
+  </si>
+  <si>
+    <t>просторий</t>
+  </si>
+  <si>
+    <t>крихітний</t>
+  </si>
+  <si>
+    <t>район</t>
+  </si>
+  <si>
+    <t>сусідство</t>
+  </si>
+  <si>
+    <t>найближчий сусід</t>
+  </si>
+  <si>
+    <t>резидент, обиватель</t>
+  </si>
+  <si>
+    <t>мешканець</t>
+  </si>
+  <si>
+    <t>рідне місто</t>
+  </si>
+  <si>
+    <t>сільська місцевість</t>
+  </si>
+  <si>
+    <t>зручно розташовані</t>
+  </si>
+  <si>
+    <t>сільський</t>
+  </si>
+  <si>
+    <t>нетрі</t>
+  </si>
+  <si>
+    <t>передмістя</t>
+  </si>
+  <si>
+    <t>міський</t>
+  </si>
+  <si>
+    <t>вид</t>
+  </si>
+  <si>
+    <t>рахунок за електроенергію</t>
+  </si>
+  <si>
+    <t>агент з нерухомості</t>
+  </si>
+  <si>
+    <t>співмешканець</t>
+  </si>
+  <si>
+    <t>здавати квартиру</t>
+  </si>
+  <si>
+    <t>платити наперед</t>
+  </si>
+  <si>
+    <t>оплатити рахунки</t>
+  </si>
+  <si>
+    <t>платити орендну плату</t>
+  </si>
+  <si>
+    <t>орендувати квартиру</t>
+  </si>
+  <si>
+    <t>співмешканець по кімнаті</t>
+  </si>
+  <si>
+    <t>прибрати безлад</t>
+  </si>
+  <si>
+    <t>виконувати роботу по дому</t>
+  </si>
+  <si>
+    <t>прасувати</t>
+  </si>
+  <si>
+    <t>мити посуд</t>
+  </si>
+  <si>
+    <t>пилососити підлогу</t>
+  </si>
+  <si>
+    <t>бути вдома</t>
+  </si>
+  <si>
+    <t>їздити на роботу</t>
+  </si>
+  <si>
+    <t>відчувати тугу за домом</t>
+  </si>
+  <si>
+    <t>вийти з дому</t>
+  </si>
+  <si>
+    <t>замкнути двері</t>
+  </si>
+  <si>
+    <t>переселитися</t>
+  </si>
+  <si>
+    <t>ділити квартиру</t>
+  </si>
+  <si>
+    <t>готувати їжу</t>
+  </si>
+  <si>
+    <t>бути в</t>
+  </si>
+  <si>
+    <t>пересидіти поза домом</t>
+  </si>
+  <si>
+    <t>залишатися вдома</t>
+  </si>
+  <si>
+    <t>cereal</t>
+  </si>
+  <si>
+    <t>крупа</t>
+  </si>
+  <si>
+    <t>bare</t>
+  </si>
+  <si>
+    <t>бідний, пустий</t>
+  </si>
+  <si>
+    <t>collocation</t>
+  </si>
+  <si>
+    <t>словосполучення</t>
+  </si>
+  <si>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>amenity</t>
+  </si>
+  <si>
+    <t>зручність</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>задній</t>
+  </si>
+  <si>
+    <t>afford</t>
+  </si>
+  <si>
+    <t>дозволити</t>
+  </si>
+  <si>
+    <t>transport facility</t>
+  </si>
+  <si>
+    <t>hectic lifestyle</t>
+  </si>
+  <si>
+    <t>метушливий спосіб життя</t>
+  </si>
+  <si>
+    <t>fed up</t>
+  </si>
+  <si>
+    <t>набриднути</t>
+  </si>
+  <si>
+    <t>long for the peace</t>
+  </si>
+  <si>
+    <t>прагнути миру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaze at </t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дивитись на </t>
+  </si>
+  <si>
+    <t>пішохідний</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>переробляти</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>outskirt</t>
+  </si>
+  <si>
+    <t>окраїна</t>
+  </si>
+  <si>
+    <t>domestic appliance</t>
+  </si>
+  <si>
+    <t>побутовий прилад</t>
   </si>
 </sst>
 </file>
@@ -1653,6 +2433,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1705,13 +2493,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1735,28 +2516,28 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2089,23 +2870,23 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="11"/>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
@@ -4014,20 +4795,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="4" width="10" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="29.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="10" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4037,195 +4818,1259 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="8"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="793">
   <si>
     <t>rarely</t>
   </si>
@@ -2003,9 +2003,6 @@
     <t xml:space="preserve">гараж </t>
   </si>
   <si>
-    <t>мансарда</t>
-  </si>
-  <si>
     <t>газон</t>
   </si>
   <si>
@@ -2021,9 +2018,6 @@
     <t>верхній поверх</t>
   </si>
   <si>
-    <t>штора, жалюзі</t>
-  </si>
-  <si>
     <t>килим</t>
   </si>
   <si>
@@ -2072,9 +2066,6 @@
     <t>тумбочка</t>
   </si>
   <si>
-    <t>ковдра</t>
-  </si>
-  <si>
     <t>комод</t>
   </si>
   <si>
@@ -2153,9 +2144,6 @@
     <t>дверний дзвінок</t>
   </si>
   <si>
-    <t>климок</t>
-  </si>
-  <si>
     <t>квартира, кімната</t>
   </si>
   <si>
@@ -2225,9 +2213,6 @@
     <t>найближчий сусід</t>
   </si>
   <si>
-    <t>резидент, обиватель</t>
-  </si>
-  <si>
     <t>мешканець</t>
   </si>
   <si>
@@ -2261,9 +2246,6 @@
     <t>агент з нерухомості</t>
   </si>
   <si>
-    <t>співмешканець</t>
-  </si>
-  <si>
     <t>здавати квартиру</t>
   </si>
   <si>
@@ -2321,9 +2303,6 @@
     <t>готувати їжу</t>
   </si>
   <si>
-    <t>бути в</t>
-  </si>
-  <si>
     <t>пересидіти поза домом</t>
   </si>
   <si>
@@ -2342,12 +2321,6 @@
     <t>бідний, пустий</t>
   </si>
   <si>
-    <t>collocation</t>
-  </si>
-  <si>
-    <t>словосполучення</t>
-  </si>
-  <si>
     <t>comprise</t>
   </si>
   <si>
@@ -2369,27 +2342,12 @@
     <t>дозволити</t>
   </si>
   <si>
-    <t>transport facility</t>
-  </si>
-  <si>
-    <t>hectic lifestyle</t>
-  </si>
-  <si>
-    <t>метушливий спосіб життя</t>
-  </si>
-  <si>
     <t>fed up</t>
   </si>
   <si>
     <t>набриднути</t>
   </si>
   <si>
-    <t>long for the peace</t>
-  </si>
-  <si>
-    <t>прагнути миру</t>
-  </si>
-  <si>
     <t xml:space="preserve">gaze at </t>
   </si>
   <si>
@@ -2417,10 +2375,25 @@
     <t>окраїна</t>
   </si>
   <si>
-    <t>domestic appliance</t>
-  </si>
-  <si>
-    <t>побутовий прилад</t>
+    <t>мансарда, горище</t>
+  </si>
+  <si>
+    <t>ковдра, одіяло</t>
+  </si>
+  <si>
+    <t>обиватель, постійний житель</t>
+  </si>
+  <si>
+    <t>бути всередині</t>
+  </si>
+  <si>
+    <t>співмешканець по квартирі</t>
+  </si>
+  <si>
+    <t>жалюзі</t>
+  </si>
+  <si>
+    <t>дверний климок</t>
   </si>
 </sst>
 </file>
@@ -4795,17 +4768,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="2" max="2" width="36" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="8"/>
@@ -4827,9 +4800,10 @@
       <c r="A3" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>498</v>
       </c>
+      <c r="C3" s="12"/>
       <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
@@ -4838,7 +4812,7 @@
       <c r="A4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4917,7 +4891,7 @@
       <c r="A12" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4949,7 +4923,7 @@
       <c r="A16" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4957,7 +4931,7 @@
       <c r="A17" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4965,7 +4939,7 @@
       <c r="A18" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4973,7 +4947,7 @@
       <c r="A19" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5005,7 +4979,7 @@
       <c r="A23" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="2" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5021,8 +4995,8 @@
       <c r="A25" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>662</v>
+      <c r="B25" s="12" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -5078,7 +5052,7 @@
         <v>550</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -5086,7 +5060,7 @@
         <v>551</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -5094,7 +5068,7 @@
         <v>552</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -5102,7 +5076,7 @@
         <v>553</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -5110,23 +5084,23 @@
         <v>554</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>668</v>
+      <c r="B37" s="12" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>669</v>
+      <c r="B38" s="12" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5134,23 +5108,23 @@
         <v>557</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>671</v>
+      <c r="B40" s="2" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>672</v>
+      <c r="B41" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -5158,15 +5132,15 @@
         <v>560</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>674</v>
+      <c r="B43" s="12" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -5174,7 +5148,7 @@
         <v>562</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -5182,7 +5156,7 @@
         <v>563</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5190,7 +5164,7 @@
         <v>564</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -5198,15 +5172,15 @@
         <v>565</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>679</v>
+      <c r="B48" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -5214,7 +5188,7 @@
         <v>567</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -5222,7 +5196,7 @@
         <v>568</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -5230,15 +5204,15 @@
         <v>569</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>683</v>
+      <c r="B52" s="12" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -5246,23 +5220,23 @@
         <v>571</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>685</v>
+      <c r="B54" s="12" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>686</v>
+      <c r="B55" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -5270,7 +5244,7 @@
         <v>574</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5278,7 +5252,7 @@
         <v>575</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5286,15 +5260,15 @@
         <v>576</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>690</v>
+      <c r="B59" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -5302,7 +5276,7 @@
         <v>578</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -5310,7 +5284,7 @@
         <v>579</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -5318,7 +5292,7 @@
         <v>580</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -5326,7 +5300,7 @@
         <v>581</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -5334,7 +5308,7 @@
         <v>582</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -5342,7 +5316,7 @@
         <v>583</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -5350,7 +5324,7 @@
         <v>584</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5358,7 +5332,7 @@
         <v>585</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5366,7 +5340,7 @@
         <v>586</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5374,7 +5348,7 @@
         <v>587</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5382,23 +5356,23 @@
         <v>588</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>702</v>
+      <c r="B71" s="2" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>703</v>
+      <c r="B72" s="12" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5406,7 +5380,7 @@
         <v>591</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5414,7 +5388,7 @@
         <v>592</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5422,7 +5396,7 @@
         <v>593</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -5430,7 +5404,7 @@
         <v>594</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5438,39 +5412,39 @@
         <v>595</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>709</v>
+      <c r="B78" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>710</v>
+      <c r="B79" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>711</v>
+      <c r="B80" s="12" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>712</v>
+      <c r="B81" s="12" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -5478,23 +5452,23 @@
         <v>600</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>714</v>
+      <c r="B83" s="2" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="12" t="s">
         <v>602</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -5502,15 +5476,15 @@
         <v>603</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>717</v>
+      <c r="B86" s="12" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -5518,7 +5492,7 @@
         <v>605</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -5526,23 +5500,23 @@
         <v>606</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>720</v>
+      <c r="B89" s="2" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>721</v>
+      <c r="B90" s="2" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5550,7 +5524,7 @@
         <v>609</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5558,7 +5532,7 @@
         <v>610</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5566,15 +5540,15 @@
         <v>399</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>725</v>
+      <c r="B94" s="2" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5582,7 +5556,7 @@
         <v>612</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5590,7 +5564,7 @@
         <v>613</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5598,15 +5572,15 @@
         <v>614</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>729</v>
+      <c r="B98" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5614,15 +5588,15 @@
         <v>616</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>731</v>
+      <c r="B100" s="12" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5630,7 +5604,7 @@
         <v>618</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -5638,7 +5612,7 @@
         <v>619</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -5646,7 +5620,7 @@
         <v>620</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -5654,23 +5628,23 @@
         <v>621</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>738</v>
+      <c r="B105" s="12" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>737</v>
+      <c r="B106" s="12" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -5678,7 +5652,7 @@
         <v>624</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -5686,15 +5660,15 @@
         <v>625</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>736</v>
+      <c r="B109" s="12" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -5710,7 +5684,7 @@
         <v>627</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -5718,15 +5692,15 @@
         <v>628</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -5734,7 +5708,7 @@
         <v>629</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -5742,7 +5716,7 @@
         <v>630</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -5750,7 +5724,7 @@
         <v>631</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -5758,31 +5732,31 @@
         <v>632</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>748</v>
+      <c r="B118" s="12" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>749</v>
+      <c r="B119" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>750</v>
+      <c r="B120" s="2" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -5790,7 +5764,7 @@
         <v>636</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -5798,15 +5772,15 @@
         <v>637</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>753</v>
+      <c r="B123" s="12" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -5814,7 +5788,7 @@
         <v>639</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,7 +5796,7 @@
         <v>640</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5830,7 +5804,7 @@
         <v>641</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5838,7 +5812,7 @@
         <v>642</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5846,7 +5820,7 @@
         <v>643</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5854,7 +5828,7 @@
         <v>644</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5862,23 +5836,23 @@
         <v>645</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="12" t="s">
         <v>646</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>768</v>
+      <c r="B132" s="12" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,7 +5860,7 @@
         <v>648</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5894,7 +5868,7 @@
         <v>649</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5902,7 +5876,7 @@
         <v>650</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5910,7 +5884,7 @@
         <v>651</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5918,7 +5892,7 @@
         <v>652</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5926,152 +5900,116 @@
         <v>653</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>770</v>
+      <c r="B139" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="B140" s="8" t="s">
-        <v>769</v>
+      <c r="B140" s="2" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>772</v>
+        <v>764</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>774</v>
+        <v>766</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
-        <v>775</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>776</v>
+        <v>768</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>334</v>
+      <c r="A144" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>779</v>
+      <c r="A145" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
-        <v>780</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>781</v>
+        <v>773</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="12" t="s">
-        <v>784</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>527</v>
+      <c r="A147" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>783</v>
+      <c r="A148" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>786</v>
+        <v>778</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>788</v>
+        <v>781</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>790</v>
+      <c r="A151" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>801</v>
-      </c>
+      <c r="A152" s="12"/>
+      <c r="B152" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="815">
   <si>
     <t>rarely</t>
   </si>
@@ -2394,18 +2394,100 @@
   </si>
   <si>
     <t>дверний климок</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>розслідувати</t>
+  </si>
+  <si>
+    <t>invent</t>
+  </si>
+  <si>
+    <t>винаходити</t>
+  </si>
+  <si>
+    <t>confident</t>
+  </si>
+  <si>
+    <t>впевнений</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>захищати</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>вдячний</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>звичайний</t>
+  </si>
+  <si>
+    <t>recognise</t>
+  </si>
+  <si>
+    <t>впізнати</t>
+  </si>
+  <si>
+    <t>jealous of</t>
+  </si>
+  <si>
+    <t>ревнувати</t>
+  </si>
+  <si>
+    <t>forgiveness</t>
+  </si>
+  <si>
+    <t>прощення</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>захоплюватись</t>
+  </si>
+  <si>
+    <t>generous</t>
+  </si>
+  <si>
+    <t>щедрий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2487,27 +2569,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2817,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2843,23 +2927,23 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
@@ -4768,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4791,10 +4875,10 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -4803,7 +4887,7 @@
       <c r="B3" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="8" t="s">
         <v>65</v>
       </c>
@@ -4812,7 +4896,7 @@
       <c r="A4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>500</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4891,7 +4975,7 @@
       <c r="A12" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>524</v>
       </c>
     </row>
@@ -4923,7 +5007,7 @@
       <c r="A16" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4939,7 +5023,7 @@
       <c r="A18" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4947,7 +5031,7 @@
       <c r="A19" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>533</v>
       </c>
     </row>
@@ -4963,7 +5047,7 @@
       <c r="A21" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -4971,7 +5055,7 @@
       <c r="A22" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="2" t="s">
         <v>539</v>
       </c>
     </row>
@@ -4995,7 +5079,7 @@
       <c r="A25" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>786</v>
       </c>
     </row>
@@ -5091,7 +5175,7 @@
       <c r="A37" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>791</v>
       </c>
     </row>
@@ -5099,7 +5183,7 @@
       <c r="A38" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5107,7 +5191,7 @@
       <c r="A39" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>668</v>
       </c>
     </row>
@@ -5115,7 +5199,7 @@
       <c r="A40" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="11" t="s">
         <v>669</v>
       </c>
     </row>
@@ -5139,7 +5223,7 @@
       <c r="A43" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>672</v>
       </c>
     </row>
@@ -5211,7 +5295,7 @@
       <c r="A52" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>681</v>
       </c>
     </row>
@@ -5227,7 +5311,7 @@
       <c r="A54" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>787</v>
       </c>
     </row>
@@ -5371,7 +5455,7 @@
       <c r="A72" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>700</v>
       </c>
     </row>
@@ -5419,7 +5503,7 @@
       <c r="A78" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="11" t="s">
         <v>706</v>
       </c>
     </row>
@@ -5435,7 +5519,7 @@
       <c r="A80" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="10" t="s">
         <v>708</v>
       </c>
     </row>
@@ -5443,7 +5527,7 @@
       <c r="A81" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="10" t="s">
         <v>792</v>
       </c>
     </row>
@@ -5464,7 +5548,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>602</v>
       </c>
       <c r="B84" s="8" t="s">
@@ -5483,7 +5567,7 @@
       <c r="A86" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>713</v>
       </c>
     </row>
@@ -5491,7 +5575,7 @@
       <c r="A87" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="11" t="s">
         <v>714</v>
       </c>
     </row>
@@ -5547,7 +5631,7 @@
       <c r="A94" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="11" t="s">
         <v>721</v>
       </c>
     </row>
@@ -5579,7 +5663,7 @@
       <c r="A98" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="11" t="s">
         <v>725</v>
       </c>
     </row>
@@ -5595,7 +5679,7 @@
       <c r="A100" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="10" t="s">
         <v>727</v>
       </c>
     </row>
@@ -5635,7 +5719,7 @@
       <c r="A105" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="10" t="s">
         <v>733</v>
       </c>
     </row>
@@ -5643,7 +5727,7 @@
       <c r="A106" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="10" t="s">
         <v>732</v>
       </c>
     </row>
@@ -5667,7 +5751,7 @@
       <c r="A109" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="10" t="s">
         <v>788</v>
       </c>
     </row>
@@ -5696,7 +5780,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="10" t="s">
         <v>783</v>
       </c>
       <c r="B113" s="8" t="s">
@@ -5739,7 +5823,7 @@
       <c r="A118" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="10" t="s">
         <v>790</v>
       </c>
     </row>
@@ -5747,7 +5831,7 @@
       <c r="A119" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="10" t="s">
         <v>743</v>
       </c>
     </row>
@@ -5779,7 +5863,7 @@
       <c r="A123" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="10" t="s">
         <v>747</v>
       </c>
     </row>
@@ -5840,7 +5924,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="10" t="s">
         <v>646</v>
       </c>
       <c r="B131" s="8" t="s">
@@ -5851,7 +5935,7 @@
       <c r="A132" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="10" t="s">
         <v>789</v>
       </c>
     </row>
@@ -5875,7 +5959,7 @@
       <c r="A135" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="2" t="s">
         <v>757</v>
       </c>
     </row>
@@ -5883,7 +5967,7 @@
       <c r="A136" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="2" t="s">
         <v>758</v>
       </c>
     </row>
@@ -5920,7 +6004,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="10" t="s">
         <v>764</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5928,7 +6012,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="10" t="s">
         <v>766</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -5936,7 +6020,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="10" t="s">
         <v>768</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -5952,7 +6036,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="10" t="s">
         <v>771</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -5960,7 +6044,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="10" t="s">
         <v>773</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -5979,7 +6063,7 @@
       <c r="A148" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="11" t="s">
         <v>779</v>
       </c>
     </row>
@@ -5995,12 +6079,12 @@
       <c r="A150" s="8" t="s">
         <v>781</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="11" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="10" t="s">
         <v>784</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -6008,8 +6092,92 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="12"/>
-      <c r="B152" s="2"/>
+      <c r="A152" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>814</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lesson 1" sheetId="1" r:id="rId1"/>
     <sheet name="Lesson 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Lesson 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1061">
   <si>
     <t>rarely</t>
   </si>
@@ -1631,12 +1632,6 @@
     <t xml:space="preserve">instead </t>
   </si>
   <si>
-    <t>the departure lounge</t>
-  </si>
-  <si>
-    <t>зал вильоту</t>
-  </si>
-  <si>
     <t xml:space="preserve">appointment </t>
   </si>
   <si>
@@ -2351,15 +2346,9 @@
     <t xml:space="preserve">gaze at </t>
   </si>
   <si>
-    <t>pedestrian</t>
-  </si>
-  <si>
     <t xml:space="preserve">дивитись на </t>
   </si>
   <si>
-    <t>пішохідний</t>
-  </si>
-  <si>
     <t>recycle</t>
   </si>
   <si>
@@ -2438,9 +2427,6 @@
     <t>впізнати</t>
   </si>
   <si>
-    <t>jealous of</t>
-  </si>
-  <si>
     <t>ревнувати</t>
   </si>
   <si>
@@ -2460,18 +2446,779 @@
   </si>
   <si>
     <t>щедрий</t>
+  </si>
+  <si>
+    <t>be jealous of</t>
+  </si>
+  <si>
+    <t>canteen</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>absence</t>
+  </si>
+  <si>
+    <t>attend a course</t>
+  </si>
+  <si>
+    <t>obtain a certificate</t>
+  </si>
+  <si>
+    <t>memorise</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>ambitious</t>
+  </si>
+  <si>
+    <t>cooperative</t>
+  </si>
+  <si>
+    <t>demanding</t>
+  </si>
+  <si>
+    <t>gifted</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>motivated</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>punctual</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>systematic</t>
+  </si>
+  <si>
+    <t>unfair</t>
+  </si>
+  <si>
+    <t>do a project</t>
+  </si>
+  <si>
+    <t>do your best</t>
+  </si>
+  <si>
+    <t>make progress</t>
+  </si>
+  <si>
+    <t>solve a problem</t>
+  </si>
+  <si>
+    <t>take notes</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>waitress</t>
+  </si>
+  <si>
+    <t>badly paid</t>
+  </si>
+  <si>
+    <t>full-time</t>
+  </si>
+  <si>
+    <t>manual work</t>
+  </si>
+  <si>
+    <t>part-time</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>well-paid</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>application form</t>
+  </si>
+  <si>
+    <t>candidate</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>curriculum vitae</t>
+  </si>
+  <si>
+    <t>автобіографія</t>
+  </si>
+  <si>
+    <t>employment contract</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>job advertisement</t>
+  </si>
+  <si>
+    <t>job application</t>
+  </si>
+  <si>
+    <t>previous experience</t>
+  </si>
+  <si>
+    <t>qualifications</t>
+  </si>
+  <si>
+    <t>recruit</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>starting salary</t>
+  </si>
+  <si>
+    <t>vacancy</t>
+  </si>
+  <si>
+    <t>working conditions</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>earnings</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>fringe benefits</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>pay rise</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>wages</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>odd jobs</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>give sb a hand</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>overwork</t>
+  </si>
+  <si>
+    <t>per hour</t>
+  </si>
+  <si>
+    <t>run a business</t>
+  </si>
+  <si>
+    <t>teamwork</t>
+  </si>
+  <si>
+    <t>work overtime</t>
+  </si>
+  <si>
+    <t>be fired</t>
+  </si>
+  <si>
+    <t>be off sick</t>
+  </si>
+  <si>
+    <t>be on sick leave</t>
+  </si>
+  <si>
+    <t>be sacked</t>
+  </si>
+  <si>
+    <t>fire sb</t>
+  </si>
+  <si>
+    <t>give sb the sack</t>
+  </si>
+  <si>
+    <t>give up work</t>
+  </si>
+  <si>
+    <t>hand in your resignation</t>
+  </si>
+  <si>
+    <t>high unemployment</t>
+  </si>
+  <si>
+    <t>out of work</t>
+  </si>
+  <si>
+    <t>quit work</t>
+  </si>
+  <si>
+    <t>resign</t>
+  </si>
+  <si>
+    <t>retire</t>
+  </si>
+  <si>
+    <t>retirement</t>
+  </si>
+  <si>
+    <t>unemployment benefit</t>
+  </si>
+  <si>
+    <t>boss</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>apply for a job</t>
+  </si>
+  <si>
+    <t>be in charge of sth</t>
+  </si>
+  <si>
+    <t>be part of a team</t>
+  </si>
+  <si>
+    <t>be promoted</t>
+  </si>
+  <si>
+    <t>be responsible for sth</t>
+  </si>
+  <si>
+    <t>be self-employed</t>
+  </si>
+  <si>
+    <t>concentrate on sth</t>
+  </si>
+  <si>
+    <t>deal with people</t>
+  </si>
+  <si>
+    <t>do your job well</t>
+  </si>
+  <si>
+    <t>do sth for a living</t>
+  </si>
+  <si>
+    <t>earn your living as</t>
+  </si>
+  <si>
+    <t>fill in a form</t>
+  </si>
+  <si>
+    <t>get a job</t>
+  </si>
+  <si>
+    <t>get a pay rise</t>
+  </si>
+  <si>
+    <t>get promoted</t>
+  </si>
+  <si>
+    <t>look for a job</t>
+  </si>
+  <si>
+    <t>take a day off</t>
+  </si>
+  <si>
+    <t>take leave</t>
+  </si>
+  <si>
+    <t>take time off</t>
+  </si>
+  <si>
+    <t>the job involves</t>
+  </si>
+  <si>
+    <t>work long hours</t>
+  </si>
+  <si>
+    <t>work on sth</t>
+  </si>
+  <si>
+    <t>precisely</t>
+  </si>
+  <si>
+    <t>точно</t>
+  </si>
+  <si>
+    <t>їдальня</t>
+  </si>
+  <si>
+    <t>папка</t>
+  </si>
+  <si>
+    <t>файл</t>
+  </si>
+  <si>
+    <t>шафка</t>
+  </si>
+  <si>
+    <t>блокнот</t>
+  </si>
+  <si>
+    <t>гумка</t>
+  </si>
+  <si>
+    <t>лінійка</t>
+  </si>
+  <si>
+    <t>відсутність</t>
+  </si>
+  <si>
+    <t>відвідувати курс</t>
+  </si>
+  <si>
+    <t>отримати сертифікат</t>
+  </si>
+  <si>
+    <t>запам'ятати</t>
+  </si>
+  <si>
+    <t>термін, семестр</t>
+  </si>
+  <si>
+    <t>розклад</t>
+  </si>
+  <si>
+    <t>активний</t>
+  </si>
+  <si>
+    <t>амбітний</t>
+  </si>
+  <si>
+    <t>співпрацюючий</t>
+  </si>
+  <si>
+    <t>вимогливий</t>
+  </si>
+  <si>
+    <t>чесний</t>
+  </si>
+  <si>
+    <t>обдарований</t>
+  </si>
+  <si>
+    <t>лінивий</t>
+  </si>
+  <si>
+    <t>мотивований</t>
+  </si>
+  <si>
+    <t>пасивний</t>
+  </si>
+  <si>
+    <t>пунктуальний</t>
+  </si>
+  <si>
+    <t>строгий</t>
+  </si>
+  <si>
+    <t>систематичний</t>
+  </si>
+  <si>
+    <t>нечесний</t>
+  </si>
+  <si>
+    <t>робити проект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">зробити все на що здатен </t>
+  </si>
+  <si>
+    <t>робити успіхи</t>
+  </si>
+  <si>
+    <t>вирішувати проблему</t>
+  </si>
+  <si>
+    <t>робити нотатки</t>
+  </si>
+  <si>
+    <t>кравець</t>
+  </si>
+  <si>
+    <t>офіціант</t>
+  </si>
+  <si>
+    <t>офіціантка</t>
+  </si>
+  <si>
+    <t>поганооплачувана</t>
+  </si>
+  <si>
+    <t>повний робочий день</t>
+  </si>
+  <si>
+    <t>ручна праця</t>
+  </si>
+  <si>
+    <t>неповний робочий день</t>
+  </si>
+  <si>
+    <t>постійний</t>
+  </si>
+  <si>
+    <t>тимчасовий</t>
+  </si>
+  <si>
+    <t>добреоплачуваний</t>
+  </si>
+  <si>
+    <t>заявник</t>
+  </si>
+  <si>
+    <t>заява</t>
+  </si>
+  <si>
+    <t>кандидат</t>
+  </si>
+  <si>
+    <t>резюме</t>
+  </si>
+  <si>
+    <t>контракт з найму</t>
+  </si>
+  <si>
+    <t>інтерв'ю</t>
+  </si>
+  <si>
+    <t>оголошення про роботу</t>
+  </si>
+  <si>
+    <t>заява про прийом на роботу</t>
+  </si>
+  <si>
+    <t>попередній досвід</t>
+  </si>
+  <si>
+    <t>кваліфікації</t>
+  </si>
+  <si>
+    <t>вербувати, новенький</t>
+  </si>
+  <si>
+    <t>посилання</t>
+  </si>
+  <si>
+    <t>навички</t>
+  </si>
+  <si>
+    <t>початкова зарплата</t>
+  </si>
+  <si>
+    <t>вакансія</t>
+  </si>
+  <si>
+    <t>умови праці</t>
+  </si>
+  <si>
+    <t>бонус</t>
+  </si>
+  <si>
+    <t>заробіток</t>
+  </si>
+  <si>
+    <t>гонорар</t>
+  </si>
+  <si>
+    <t>додаткові пільги</t>
+  </si>
+  <si>
+    <t>дохід</t>
+  </si>
+  <si>
+    <t>платити, платня</t>
+  </si>
+  <si>
+    <t>підвищення зп</t>
+  </si>
+  <si>
+    <t>прибуток</t>
+  </si>
+  <si>
+    <t>зарплата</t>
+  </si>
+  <si>
+    <t>кар'єра</t>
+  </si>
+  <si>
+    <t>найняти</t>
+  </si>
+  <si>
+    <t>додаткова робота</t>
+  </si>
+  <si>
+    <t>положення, посада</t>
+  </si>
+  <si>
+    <t>позиція, пост</t>
+  </si>
+  <si>
+    <t>допомогти</t>
+  </si>
+  <si>
+    <t>крайній термін</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мати справу з </t>
+  </si>
+  <si>
+    <t>допомогти комусь</t>
+  </si>
+  <si>
+    <t>управляти, справитись</t>
+  </si>
+  <si>
+    <t>перевтома</t>
+  </si>
+  <si>
+    <t>погодинно</t>
+  </si>
+  <si>
+    <t>вести бізнес</t>
+  </si>
+  <si>
+    <t>командна робота</t>
+  </si>
+  <si>
+    <t>працювати понаднормово</t>
+  </si>
+  <si>
+    <t>бути звільненим</t>
+  </si>
+  <si>
+    <t>хворіти</t>
+  </si>
+  <si>
+    <t>бути на лікарняному</t>
+  </si>
+  <si>
+    <t>звільняти когось</t>
+  </si>
+  <si>
+    <t>кинути роботу</t>
+  </si>
+  <si>
+    <t>подати заяву про відставку</t>
+  </si>
+  <si>
+    <t>високий рівень безробіття</t>
+  </si>
+  <si>
+    <t>не працює</t>
+  </si>
+  <si>
+    <t>піти у відставку</t>
+  </si>
+  <si>
+    <t>вийти на пенсію</t>
+  </si>
+  <si>
+    <t>відставка</t>
+  </si>
+  <si>
+    <t>допомога по безробіттю</t>
+  </si>
+  <si>
+    <t>керівник</t>
+  </si>
+  <si>
+    <t>колега</t>
+  </si>
+  <si>
+    <t>працівник</t>
+  </si>
+  <si>
+    <t>роботодавець</t>
+  </si>
+  <si>
+    <t>персонал</t>
+  </si>
+  <si>
+    <t>команда</t>
+  </si>
+  <si>
+    <t>звертатися за роботою</t>
+  </si>
+  <si>
+    <t>бути частиною команди</t>
+  </si>
+  <si>
+    <t>бути підвищеним</t>
+  </si>
+  <si>
+    <t>керувати чим небудь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">бути відповідальним за </t>
+  </si>
+  <si>
+    <t>бути самозайнятим</t>
+  </si>
+  <si>
+    <t>зосереджуватись на чомусь</t>
+  </si>
+  <si>
+    <t>мати справу з людьми</t>
+  </si>
+  <si>
+    <t>добре виконувати свою роботу</t>
+  </si>
+  <si>
+    <t>заробляти на життя чимось</t>
+  </si>
+  <si>
+    <t>заробляти на життя кимось</t>
+  </si>
+  <si>
+    <t>заповнити форму</t>
+  </si>
+  <si>
+    <t>знайти роботу</t>
+  </si>
+  <si>
+    <t>отримати підвищення зарплати</t>
+  </si>
+  <si>
+    <t>отримати підвищення</t>
+  </si>
+  <si>
+    <t>шукати роботу</t>
+  </si>
+  <si>
+    <t>взяти вихідний</t>
+  </si>
+  <si>
+    <t>взяти відпустку</t>
+  </si>
+  <si>
+    <t>відпроситися</t>
+  </si>
+  <si>
+    <t>робота передбачає</t>
+  </si>
+  <si>
+    <t>працювати допізна</t>
+  </si>
+  <si>
+    <t>працювати над чимось</t>
+  </si>
+  <si>
+    <t>робоча зміна</t>
+  </si>
+  <si>
+    <t>work shift</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2569,29 +3316,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2927,23 +3675,23 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
@@ -4852,10 +5600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -4875,16 +5623,16 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>498</v>
       </c>
       <c r="C3" s="10"/>
@@ -5015,7 +5763,7 @@
       <c r="A17" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="12" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5047,7 +5795,7 @@
       <c r="A21" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5055,7 +5803,7 @@
       <c r="A22" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="12" t="s">
         <v>539</v>
       </c>
     </row>
@@ -5063,7 +5811,7 @@
       <c r="A23" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5071,29 +5819,29 @@
       <c r="A24" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>543</v>
+      <c r="B24" s="10" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>786</v>
+        <v>543</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>656</v>
@@ -5101,319 +5849,319 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>547</v>
+        <v>84</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>84</v>
+        <v>546</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>666</v>
+        <v>553</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>791</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>667</v>
+        <v>555</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>668</v>
+        <v>556</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>669</v>
+        <v>557</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>670</v>
+        <v>558</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>671</v>
+        <v>559</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>672</v>
+        <v>560</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>676</v>
+        <v>564</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>677</v>
+        <v>565</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>680</v>
+        <v>568</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>681</v>
+        <v>569</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>682</v>
+        <v>570</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>787</v>
+        <v>571</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>683</v>
+        <v>572</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>686</v>
+        <v>575</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>687</v>
+        <v>576</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>694</v>
@@ -5421,593 +6169,593 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>698</v>
+        <v>587</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>699</v>
+        <v>588</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>700</v>
+        <v>589</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>705</v>
+        <v>594</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>706</v>
+        <v>595</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>707</v>
+        <v>596</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>792</v>
+        <v>598</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="8" t="s">
         <v>710</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>712</v>
+        <v>602</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>713</v>
+        <v>603</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>714</v>
+        <v>604</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>715</v>
+        <v>605</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>716</v>
+        <v>606</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>717</v>
+        <v>607</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>610</v>
+        <v>399</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>720</v>
+        <v>609</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>721</v>
+        <v>610</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>724</v>
+        <v>613</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>725</v>
+        <v>614</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>726</v>
+        <v>615</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>727</v>
+        <v>616</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>729</v>
+        <v>620</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>732</v>
+        <v>622</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>731</v>
+        <v>624</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>788</v>
+        <v>514</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>526</v>
+        <v>734</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="B112" s="8" t="s">
+      <c r="B113" s="8" t="s">
         <v>737</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
-        <v>783</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>742</v>
+        <v>631</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>743</v>
+        <v>633</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>744</v>
+        <v>634</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>746</v>
+        <v>636</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>747</v>
+        <v>637</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B130" s="8" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>754</v>
+      <c r="B131" s="10" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>789</v>
+        <v>646</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>756</v>
+        <v>648</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>757</v>
+        <v>649</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>758</v>
+        <v>650</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>760</v>
+        <v>652</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="B139" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>763</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="12" t="s">
         <v>765</v>
       </c>
     </row>
@@ -6016,19 +6764,19 @@
         <v>766</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+      <c r="B143" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="10" t="s">
         <v>769</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -6044,7 +6792,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+      <c r="A146" s="8" t="s">
         <v>773</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -6055,7 +6803,7 @@
       <c r="A147" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="11" t="s">
         <v>776</v>
       </c>
     </row>
@@ -6064,54 +6812,54 @@
         <v>777</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
-        <v>778</v>
+      <c r="A149" s="10" t="s">
+        <v>780</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="B150" s="11" t="s">
-        <v>782</v>
+      <c r="A150" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>785</v>
+      <c r="A151" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B153" s="12" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="12" t="s">
         <v>798</v>
       </c>
     </row>
@@ -6119,7 +6867,7 @@
       <c r="A155" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="12" t="s">
         <v>800</v>
       </c>
     </row>
@@ -6127,56 +6875,40 @@
       <c r="A156" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="12" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
+      <c r="A157" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="B157" s="12" t="s">
         <v>803</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="B158" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>807</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B160" s="12" t="s">
         <v>809</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="B161" s="14" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -6186,4 +6918,1057 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>844</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>845</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>851</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>853</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>855</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>859</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>861</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>863</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>880</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
+        <v>882</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>883</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
+        <v>888</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>889</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>891</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>894</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="15" t="s">
+        <v>896</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>897</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="15" t="s">
+        <v>898</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="15" t="s">
+        <v>900</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="15" t="s">
+        <v>901</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="15" t="s">
+        <v>905</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>907</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>913</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
+        <v>914</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
+        <v>915</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="15" t="s">
+        <v>917</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>921</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="15" t="s">
+        <v>926</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
+        <v>927</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="15" t="s">
+        <v>928</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
+        <v>933</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Lesson 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Lesson 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Lesson 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Irregular verbs" sheetId="4" r:id="rId1"/>
+    <sheet name="Uncountable nouns" sheetId="5" r:id="rId2"/>
+    <sheet name="Lesson 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Lesson 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Lesson 3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1156">
   <si>
     <t>rarely</t>
   </si>
@@ -3199,18 +3201,319 @@
   </si>
   <si>
     <t>work shift</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abuse </t>
+  </si>
+  <si>
+    <t>in the midst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">despite </t>
+  </si>
+  <si>
+    <t>faults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chimney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladder </t>
+  </si>
+  <si>
+    <t>germs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey </t>
+  </si>
+  <si>
+    <t>obligatory</t>
+  </si>
+  <si>
+    <t>тарифи</t>
+  </si>
+  <si>
+    <t>черга</t>
+  </si>
+  <si>
+    <t>зловживання</t>
+  </si>
+  <si>
+    <t>посеред</t>
+  </si>
+  <si>
+    <t>міра</t>
+  </si>
+  <si>
+    <t>незважаючи на</t>
+  </si>
+  <si>
+    <t>несправності</t>
+  </si>
+  <si>
+    <t>димохід</t>
+  </si>
+  <si>
+    <t>драбина</t>
+  </si>
+  <si>
+    <t>мікроби</t>
+  </si>
+  <si>
+    <t>опитування</t>
+  </si>
+  <si>
+    <t>обов'язковий</t>
+  </si>
+  <si>
+    <t>ліки, наркотики</t>
+  </si>
+  <si>
+    <t>perks</t>
+  </si>
+  <si>
+    <t>пільги, переваги</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news </t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money </t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>cans</t>
+  </si>
+  <si>
+    <t>банка</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>кашель</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain </t>
+  </si>
+  <si>
+    <t>owe</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дозволити собі </t>
+  </si>
+  <si>
+    <t>торгуватися</t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>каталог</t>
+  </si>
+  <si>
+    <t>решта</t>
+  </si>
+  <si>
+    <t>монетка</t>
+  </si>
+  <si>
+    <t>борг</t>
+  </si>
+  <si>
+    <t>попит</t>
+  </si>
+  <si>
+    <t>багатство</t>
+  </si>
+  <si>
+    <t>отримати</t>
+  </si>
+  <si>
+    <t>заборгувати</t>
+  </si>
+  <si>
+    <t>мати, володіти</t>
+  </si>
+  <si>
+    <t>власність</t>
+  </si>
+  <si>
+    <t>покупка</t>
+  </si>
+  <si>
+    <t>квитанція</t>
+  </si>
+  <si>
+    <t>вимагати, залежати</t>
+  </si>
+  <si>
+    <t>постачати</t>
+  </si>
+  <si>
+    <t>різноманітність</t>
+  </si>
+  <si>
+    <t>марнувати, бракований</t>
+  </si>
+  <si>
+    <t>додаток</t>
+  </si>
+  <si>
+    <t>порівняння</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase permission </t>
+  </si>
+  <si>
+    <t>дозвіл на купівлю</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>додавання</t>
+  </si>
+  <si>
+    <t>доступний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3316,30 +3619,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3647,10 +3952,1437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3668,44 +5400,26 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="G2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3718,20 +5432,8 @@
       <c r="E3" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3744,20 +5446,8 @@
       <c r="E4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3770,20 +5460,8 @@
       <c r="E5" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3796,20 +5474,8 @@
       <c r="E6" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>343</v>
       </c>
@@ -3822,20 +5488,8 @@
       <c r="E7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -3848,20 +5502,8 @@
       <c r="E8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>347</v>
       </c>
@@ -3874,20 +5516,8 @@
       <c r="E9" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>349</v>
       </c>
@@ -3900,20 +5530,8 @@
       <c r="E10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>350</v>
       </c>
@@ -3926,20 +5544,8 @@
       <c r="E11" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>351</v>
       </c>
@@ -3952,20 +5558,8 @@
       <c r="E12" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>352</v>
       </c>
@@ -3978,20 +5572,8 @@
       <c r="E13" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>354</v>
       </c>
@@ -4004,20 +5586,8 @@
       <c r="E14" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>356</v>
       </c>
@@ -4030,20 +5600,8 @@
       <c r="E15" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>358</v>
       </c>
@@ -4056,20 +5614,8 @@
       <c r="E16" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>362</v>
       </c>
@@ -4082,20 +5628,8 @@
       <c r="E17" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>364</v>
       </c>
@@ -4108,20 +5642,8 @@
       <c r="E18" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>366</v>
       </c>
@@ -4134,20 +5656,8 @@
       <c r="E19" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>367</v>
       </c>
@@ -4160,1436 +5670,513 @@
       <c r="E20" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>368</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>369</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>372</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>375</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>376</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>378</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>380</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>387</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>389</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>391</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>394</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>451</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>398</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>399</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>400</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>403</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>405</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>407</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>409</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>413</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>416</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>418</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>420</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>422</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>423</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>427</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>429</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>430</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>431</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>432</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>434</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>435</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>469</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>491</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G84" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G85" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G86" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G88" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G89" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G91" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G93" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G94" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>328</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:J1"/>
+  <mergeCells count="2">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
@@ -5598,7 +6185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E160"/>
   <sheetViews>
@@ -5623,10 +6210,10 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -6920,19 +7507,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="28.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -6944,1027 +7531,1371 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>811</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>812</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>813</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>814</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>817</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>820</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>821</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>822</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>823</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>825</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>831</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>833</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>834</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>835</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>836</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>837</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>838</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="13" t="s">
         <v>839</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>840</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="13" t="s">
         <v>841</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="13" t="s">
         <v>842</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>843</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>844</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="13" t="s">
         <v>845</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="13" t="s">
         <v>847</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="13" t="s">
         <v>851</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="13" t="s">
         <v>865</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="13" t="s">
         <v>867</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="13" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="13" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="13" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="13" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="13" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="13" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="13" t="s">
         <v>879</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="13" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="13" t="s">
         <v>881</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="13" t="s">
         <v>882</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>883</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="13" t="s">
         <v>884</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="13" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="13" t="s">
         <v>885</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="13" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="13" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="A80" s="13" t="s">
         <v>887</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="13" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="13" t="s">
         <v>888</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="13" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="13" t="s">
         <v>889</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="13" t="s">
         <v>890</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="13" t="s">
         <v>891</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="13" t="s">
         <v>892</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="13" t="s">
         <v>893</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="13" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="13" t="s">
         <v>894</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="13" t="s">
         <v>895</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="13" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="13" t="s">
         <v>896</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="13" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="13" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="13" t="s">
         <v>898</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="13" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="13" t="s">
         <v>899</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="13" t="s">
         <v>900</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="13" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="13" t="s">
         <v>901</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="13" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="13" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="13" t="s">
         <v>903</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="13" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="13" t="s">
         <v>904</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="13" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="13" t="s">
         <v>905</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="13" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
+      <c r="A99" s="13" t="s">
         <v>906</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="13" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="13" t="s">
         <v>907</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="13" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
+      <c r="A101" s="13" t="s">
         <v>908</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="13" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="A102" s="13" t="s">
         <v>909</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="13" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+      <c r="A103" s="13" t="s">
         <v>910</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="13" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="13" t="s">
         <v>911</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="13" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="13" t="s">
         <v>912</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="13" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="13" t="s">
         <v>913</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="13" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="13" t="s">
         <v>914</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="13" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="13" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="13" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="13" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="13" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="13" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="B114" s="13" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="13" t="s">
         <v>922</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="13" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="13" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="13" t="s">
         <v>924</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="13" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="13" t="s">
         <v>925</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="13" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="13" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="13" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="13" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="13" t="s">
         <v>929</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="13" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="13" t="s">
         <v>930</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="13" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="13" t="s">
         <v>931</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="13" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="13" t="s">
         <v>932</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="13" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="13" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="s">
+      <c r="A127" s="13" t="s">
         <v>934</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="13" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="13" t="s">
         <v>935</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="13" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
+      <c r="A129" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="13" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="13" t="s">
         <v>936</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="13" t="s">
         <v>937</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="13" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B153" s="17" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B157" s="17" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B170" s="17" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B173" s="17" t="s">
+        <v>1150</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1205">
   <si>
     <t>rarely</t>
   </si>
@@ -2636,9 +2636,6 @@
     <t>fee</t>
   </si>
   <si>
-    <t>fringe benefits</t>
-  </si>
-  <si>
     <t>income</t>
   </si>
   <si>
@@ -2660,9 +2657,6 @@
     <t>employ</t>
   </si>
   <si>
-    <t>odd jobs</t>
-  </si>
-  <si>
     <t>position</t>
   </si>
   <si>
@@ -2720,9 +2714,6 @@
     <t>give up work</t>
   </si>
   <si>
-    <t>hand in your resignation</t>
-  </si>
-  <si>
     <t>high unemployment</t>
   </si>
   <si>
@@ -3014,9 +3005,6 @@
     <t>гонорар</t>
   </si>
   <si>
-    <t>додаткові пільги</t>
-  </si>
-  <si>
     <t>дохід</t>
   </si>
   <si>
@@ -3041,12 +3029,6 @@
     <t>додаткова робота</t>
   </si>
   <si>
-    <t>положення, посада</t>
-  </si>
-  <si>
-    <t>позиція, пост</t>
-  </si>
-  <si>
     <t>допомогти</t>
   </si>
   <si>
@@ -3092,9 +3074,6 @@
     <t>кинути роботу</t>
   </si>
   <si>
-    <t>подати заяву про відставку</t>
-  </si>
-  <si>
     <t>високий рівень безробіття</t>
   </si>
   <si>
@@ -3173,331 +3152,515 @@
     <t>отримати підвищення зарплати</t>
   </si>
   <si>
+    <t>шукати роботу</t>
+  </si>
+  <si>
+    <t>взяти вихідний</t>
+  </si>
+  <si>
+    <t>взяти відпустку</t>
+  </si>
+  <si>
+    <t>відпроситися</t>
+  </si>
+  <si>
+    <t>робота передбачає</t>
+  </si>
+  <si>
+    <t>працювати допізна</t>
+  </si>
+  <si>
+    <t>працювати над чимось</t>
+  </si>
+  <si>
+    <t>робоча зміна</t>
+  </si>
+  <si>
+    <t>work shift</t>
+  </si>
+  <si>
+    <t>fetch</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>fares</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drug </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abuse </t>
+  </si>
+  <si>
+    <t>in the midst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">despite </t>
+  </si>
+  <si>
+    <t>faults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chimney </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladder </t>
+  </si>
+  <si>
+    <t>germs</t>
+  </si>
+  <si>
+    <t>obligatory</t>
+  </si>
+  <si>
+    <t>тарифи</t>
+  </si>
+  <si>
+    <t>черга</t>
+  </si>
+  <si>
+    <t>зловживання</t>
+  </si>
+  <si>
+    <t>посеред</t>
+  </si>
+  <si>
+    <t>міра</t>
+  </si>
+  <si>
+    <t>незважаючи на</t>
+  </si>
+  <si>
+    <t>несправності</t>
+  </si>
+  <si>
+    <t>димохід</t>
+  </si>
+  <si>
+    <t>драбина</t>
+  </si>
+  <si>
+    <t>мікроби</t>
+  </si>
+  <si>
+    <t>обов'язковий</t>
+  </si>
+  <si>
+    <t>ліки, наркотики</t>
+  </si>
+  <si>
+    <t>perks</t>
+  </si>
+  <si>
+    <t>пільги, переваги</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>homework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">news </t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>advice</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money </t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>банка</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>кашель</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>bargain</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>catalogue</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obtain </t>
+  </si>
+  <si>
+    <t>owe</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дозволити собі </t>
+  </si>
+  <si>
+    <t>торгуватися</t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>каталог</t>
+  </si>
+  <si>
+    <t>решта</t>
+  </si>
+  <si>
+    <t>монетка</t>
+  </si>
+  <si>
+    <t>борг</t>
+  </si>
+  <si>
+    <t>попит</t>
+  </si>
+  <si>
+    <t>багатство</t>
+  </si>
+  <si>
+    <t>отримати</t>
+  </si>
+  <si>
+    <t>заборгувати</t>
+  </si>
+  <si>
+    <t>мати, володіти</t>
+  </si>
+  <si>
+    <t>власність</t>
+  </si>
+  <si>
+    <t>покупка</t>
+  </si>
+  <si>
+    <t>квитанція</t>
+  </si>
+  <si>
+    <t>вимагати, залежати</t>
+  </si>
+  <si>
+    <t>постачати</t>
+  </si>
+  <si>
+    <t>різноманітність</t>
+  </si>
+  <si>
+    <t>марнувати, бракований</t>
+  </si>
+  <si>
+    <t>порівняння</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase permission </t>
+  </si>
+  <si>
+    <t>дозвіл на купівлю</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>доступний</t>
+  </si>
+  <si>
+    <t>посада, пост</t>
+  </si>
+  <si>
+    <t>положення, позиція</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>додаток, додавання</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>порівнювати</t>
+  </si>
+  <si>
+    <t>згадати, запам'ятати</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>odd job</t>
+  </si>
+  <si>
+    <t>resignation</t>
+  </si>
+  <si>
+    <t>вихід на пенсію, відставка</t>
+  </si>
+  <si>
     <t>отримати підвищення</t>
   </si>
   <si>
-    <t>шукати роботу</t>
-  </si>
-  <si>
-    <t>взяти вихідний</t>
-  </si>
-  <si>
-    <t>взяти відпустку</t>
-  </si>
-  <si>
-    <t>відпроситися</t>
-  </si>
-  <si>
-    <t>робота передбачає</t>
-  </si>
-  <si>
-    <t>працювати допізна</t>
-  </si>
-  <si>
-    <t>працювати над чимось</t>
-  </si>
-  <si>
-    <t>робоча зміна</t>
-  </si>
-  <si>
-    <t>work shift</t>
-  </si>
-  <si>
-    <t>fetch</t>
-  </si>
-  <si>
-    <t>принести</t>
-  </si>
-  <si>
-    <t>fares</t>
-  </si>
-  <si>
-    <t>queue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drug </t>
-  </si>
-  <si>
-    <t xml:space="preserve">abuse </t>
-  </si>
-  <si>
-    <t>in the midst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">despite </t>
-  </si>
-  <si>
-    <t>faults</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chimney </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladder </t>
-  </si>
-  <si>
-    <t>germs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey </t>
-  </si>
-  <si>
-    <t>obligatory</t>
-  </si>
-  <si>
-    <t>тарифи</t>
-  </si>
-  <si>
-    <t>черга</t>
-  </si>
-  <si>
-    <t>зловживання</t>
-  </si>
-  <si>
-    <t>посеред</t>
-  </si>
-  <si>
-    <t>міра</t>
-  </si>
-  <si>
-    <t>незважаючи на</t>
-  </si>
-  <si>
-    <t>несправності</t>
-  </si>
-  <si>
-    <t>димохід</t>
-  </si>
-  <si>
-    <t>драбина</t>
-  </si>
-  <si>
-    <t>мікроби</t>
-  </si>
-  <si>
-    <t>опитування</t>
-  </si>
-  <si>
-    <t>обов'язковий</t>
-  </si>
-  <si>
-    <t>ліки, наркотики</t>
-  </si>
-  <si>
-    <t>perks</t>
-  </si>
-  <si>
-    <t>пільги, переваги</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>homework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">news </t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>advice</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money </t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>butter</t>
-  </si>
-  <si>
-    <t>cans</t>
-  </si>
-  <si>
-    <t>банка</t>
-  </si>
-  <si>
-    <t>cough</t>
-  </si>
-  <si>
-    <t>кашель</t>
-  </si>
-  <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>bargain</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>catalogue</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obtain </t>
-  </si>
-  <si>
-    <t>owe</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>receipt</t>
-  </si>
-  <si>
-    <t>require</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дозволити собі </t>
-  </si>
-  <si>
-    <t>торгуватися</t>
-  </si>
-  <si>
-    <t>марка</t>
-  </si>
-  <si>
-    <t>каталог</t>
-  </si>
-  <si>
-    <t>решта</t>
-  </si>
-  <si>
-    <t>монетка</t>
-  </si>
-  <si>
-    <t>борг</t>
-  </si>
-  <si>
-    <t>попит</t>
-  </si>
-  <si>
-    <t>багатство</t>
-  </si>
-  <si>
-    <t>отримати</t>
-  </si>
-  <si>
-    <t>заборгувати</t>
-  </si>
-  <si>
-    <t>мати, володіти</t>
-  </si>
-  <si>
-    <t>власність</t>
-  </si>
-  <si>
-    <t>покупка</t>
-  </si>
-  <si>
-    <t>квитанція</t>
-  </si>
-  <si>
-    <t>вимагати, залежати</t>
-  </si>
-  <si>
-    <t>постачати</t>
-  </si>
-  <si>
-    <t>різноманітність</t>
-  </si>
-  <si>
-    <t>марнувати, бракований</t>
-  </si>
-  <si>
-    <t>додаток</t>
-  </si>
-  <si>
-    <t>порівняння</t>
-  </si>
-  <si>
-    <t xml:space="preserve">purchase permission </t>
-  </si>
-  <si>
-    <t>дозвіл на купівлю</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>додавання</t>
-  </si>
-  <si>
-    <t>доступний</t>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>complicated</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">digital </t>
+  </si>
+  <si>
+    <t xml:space="preserve">involve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discover </t>
+  </si>
+  <si>
+    <t>laboratory</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exact </t>
+  </si>
+  <si>
+    <t>operate</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>sudden</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>excuse</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>examine</t>
+  </si>
+  <si>
+    <t>fascinate</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>штучні</t>
+  </si>
+  <si>
+    <t>автоматичний</t>
+  </si>
+  <si>
+    <t>складний</t>
+  </si>
+  <si>
+    <t>зменшення</t>
+  </si>
+  <si>
+    <t>цифровий</t>
+  </si>
+  <si>
+    <t>виявити, винайти</t>
+  </si>
+  <si>
+    <t>ефект</t>
+  </si>
+  <si>
+    <t>обладнання</t>
+  </si>
+  <si>
+    <t>точний</t>
+  </si>
+  <si>
+    <t>залучати</t>
+  </si>
+  <si>
+    <t>лабораторія</t>
+  </si>
+  <si>
+    <t>нестача, дефіцит</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>визначати, оперувати</t>
+  </si>
+  <si>
+    <t>дослідження</t>
+  </si>
+  <si>
+    <t>програмне забезпечення</t>
+  </si>
+  <si>
+    <t>раптовий</t>
+  </si>
+  <si>
+    <t>пояснення</t>
+  </si>
+  <si>
+    <t>вибачати, виправдання</t>
+  </si>
+  <si>
+    <t>зробити висновок</t>
+  </si>
+  <si>
+    <t>оглядати</t>
+  </si>
+  <si>
+    <t>однакові</t>
+  </si>
+  <si>
+    <t>кошторис, оцінка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definitely </t>
+  </si>
+  <si>
+    <t>безумовно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3619,32 +3782,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3967,12 +4132,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -5299,62 +5464,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -5364,12 +5529,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -5407,17 +5572,17 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -6210,10 +6375,10 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="15"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -7509,10 +7674,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -7535,7 +7700,7 @@
         <v>811</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7543,7 +7708,7 @@
         <v>812</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -7551,7 +7716,7 @@
         <v>813</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -7559,7 +7724,7 @@
         <v>814</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7567,7 +7732,7 @@
         <v>815</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -7575,7 +7740,7 @@
         <v>816</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -7583,7 +7748,7 @@
         <v>817</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7591,15 +7756,15 @@
         <v>818</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>946</v>
+      <c r="B11" s="2" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -7607,1295 +7772,1503 @@
         <v>820</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>821</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>948</v>
+      <c r="A13" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>822</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>949</v>
+        <v>821</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>955</v>
+      <c r="A20" s="16" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>956</v>
+        <v>827</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>829</v>
+        <v>375</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>968</v>
+        <v>838</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>970</v>
+        <v>840</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>976</v>
+        <v>846</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>978</v>
+        <v>848</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>856</v>
+        <v>977</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>982</v>
+        <v>853</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>983</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>989</v>
+        <v>861</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>991</v>
+        <v>863</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>994</v>
+        <v>866</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>996</v>
+        <v>868</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>1000</v>
+        <v>872</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>874</v>
+        <v>156</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>1003</v>
+        <v>874</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>1004</v>
+        <v>876</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>1007</v>
+      <c r="A74" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>1008</v>
+        <v>879</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>1009</v>
+        <v>880</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>1010</v>
+        <v>881</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>1021</v>
+        <v>892</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>1019</v>
+        <v>893</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>1024</v>
+        <v>897</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>1025</v>
+      <c r="A94" s="16" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>1027</v>
+        <v>900</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>1028</v>
+        <v>901</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>1030</v>
+      <c r="A100" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>1031</v>
+        <v>904</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1023</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>1040</v>
+        <v>911</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>1038</v>
+        <v>912</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>1041</v>
+        <v>914</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>1042</v>
+        <v>915</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>1044</v>
+        <v>917</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>1047</v>
+        <v>920</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>1048</v>
+        <v>921</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>1049</v>
+        <v>922</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>1052</v>
+        <v>925</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>930</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>1053</v>
+        <v>926</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>1055</v>
+        <v>928</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>1056</v>
+        <v>929</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>934</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>1057</v>
+        <v>930</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>1060</v>
+        <v>932</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>936</v>
+        <v>1052</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>937</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
-        <v>1061</v>
+      <c r="A131" s="13" t="s">
+        <v>933</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>1062</v>
+        <v>934</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="13" t="s">
-        <v>1063</v>
+      <c r="A132" s="14" t="s">
+        <v>1053</v>
       </c>
       <c r="B132" s="13" t="s">
-        <v>1076</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>1088</v>
+        <v>1056</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B135" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B135" s="14" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>1079</v>
+        <v>1058</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>1080</v>
+        <v>1059</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>1082</v>
+      <c r="A139" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="13" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>1083</v>
+      <c r="A140" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>1084</v>
+        <v>1063</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>1090</v>
+      <c r="A142" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="13" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>1085</v>
+      <c r="A143" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="13" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>1087</v>
+      <c r="A145" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="13" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>1105</v>
+      <c r="A146" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="15" t="s">
         <v>1106</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B158" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="15" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="13" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="B149" s="17" t="s">
+      <c r="B159" s="15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B160" s="15" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B150" s="17" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="15" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="13" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="17" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="17" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="17" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>871</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="17" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B163" s="17" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="17" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="17" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B168" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B170" s="17" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B172" s="17" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="17" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B173" s="17" t="s">
-        <v>1150</v>
+      <c r="B173" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Irregular verbs" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1207">
   <si>
     <t>rarely</t>
   </si>
@@ -2870,9 +2870,6 @@
     <t>амбітний</t>
   </si>
   <si>
-    <t>співпрацюючий</t>
-  </si>
-  <si>
     <t>вимогливий</t>
   </si>
   <si>
@@ -2894,9 +2891,6 @@
     <t>пунктуальний</t>
   </si>
   <si>
-    <t>строгий</t>
-  </si>
-  <si>
     <t>систематичний</t>
   </si>
   <si>
@@ -3633,6 +3627,18 @@
   </si>
   <si>
     <t>безумовно</t>
+  </si>
+  <si>
+    <t>співпрацюючий, винахідливий</t>
+  </si>
+  <si>
+    <t>imaginative</t>
+  </si>
+  <si>
+    <t>строгий, вимогливий</t>
+  </si>
+  <si>
+    <t>set an essay</t>
   </si>
 </sst>
 </file>
@@ -3806,13 +3812,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4123,23 +4129,23 @@
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -4209,7 +4215,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -4223,7 +4229,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -4251,7 +4257,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4265,7 +4271,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -4419,7 +4425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>81</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>87</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>93</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>95</v>
       </c>
@@ -4531,7 +4537,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>99</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>107</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>110</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>113</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>115</v>
       </c>
@@ -4643,7 +4649,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>118</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -4671,7 +4677,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>125</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>130</v>
       </c>
@@ -4727,7 +4733,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -4741,7 +4747,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -4769,7 +4775,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>137</v>
       </c>
@@ -4783,7 +4789,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>139</v>
       </c>
@@ -4797,7 +4803,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>141</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>146</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>147</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>149</v>
       </c>
@@ -4867,7 +4873,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>151</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>153</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>156</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>157</v>
       </c>
@@ -4923,7 +4929,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>158</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>159</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>162</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>165</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>168</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>170</v>
       </c>
@@ -5007,7 +5013,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5021,7 +5027,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>174</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>342</v>
       </c>
@@ -5049,7 +5055,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>177</v>
       </c>
@@ -5063,7 +5069,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>178</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>181</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>183</v>
       </c>
@@ -5105,7 +5111,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>185</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>188</v>
       </c>
@@ -5133,7 +5139,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>189</v>
       </c>
@@ -5147,7 +5153,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>192</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>194</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>196</v>
       </c>
@@ -5189,7 +5195,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>198</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>201</v>
       </c>
@@ -5217,7 +5223,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>203</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>205</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>207</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>210</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>212</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>215</v>
       </c>
@@ -5301,7 +5307,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>218</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>220</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>223</v>
       </c>
@@ -5343,7 +5349,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>23</v>
       </c>
@@ -5357,7 +5363,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>226</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>24</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>230</v>
       </c>
@@ -5399,7 +5405,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>233</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>236</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>238</v>
       </c>
@@ -5457,84 +5463,84 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
   </sheetData>
@@ -5550,41 +5556,41 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5598,7 +5604,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5612,7 +5618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>343</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>345</v>
       </c>
@@ -5668,7 +5674,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>347</v>
       </c>
@@ -5682,7 +5688,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>349</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>350</v>
       </c>
@@ -5710,7 +5716,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>351</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>352</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>354</v>
       </c>
@@ -5752,7 +5758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>356</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>358</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>362</v>
       </c>
@@ -5794,7 +5800,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>364</v>
       </c>
@@ -5808,7 +5814,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>366</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>367</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>368</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>369</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>372</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>373</v>
       </c>
@@ -5876,7 +5882,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>375</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>376</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>378</v>
       </c>
@@ -5900,7 +5906,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>380</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>382</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>383</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>384</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>387</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>389</v>
       </c>
@@ -5948,7 +5954,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>390</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>391</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>392</v>
       </c>
@@ -5972,7 +5978,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>393</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>394</v>
       </c>
@@ -5988,7 +5994,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>395</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>396</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>451</v>
       </c>
@@ -6012,7 +6018,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>398</v>
       </c>
@@ -6020,7 +6026,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>399</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>400</v>
       </c>
@@ -6036,7 +6042,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>455</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>403</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>405</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>407</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>409</v>
       </c>
@@ -6076,7 +6082,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>411</v>
       </c>
@@ -6084,7 +6090,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>413</v>
       </c>
@@ -6092,7 +6098,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>415</v>
       </c>
@@ -6100,7 +6106,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>416</v>
       </c>
@@ -6108,7 +6114,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>418</v>
       </c>
@@ -6116,7 +6122,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>420</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>422</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>423</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>425</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>426</v>
       </c>
@@ -6156,7 +6162,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>427</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>429</v>
       </c>
@@ -6172,7 +6178,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>430</v>
       </c>
@@ -6180,7 +6186,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>431</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>432</v>
       </c>
@@ -6196,7 +6202,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>434</v>
       </c>
@@ -6204,7 +6210,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>435</v>
       </c>
@@ -6212,7 +6218,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="36" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>465</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>467</v>
       </c>
@@ -6228,7 +6234,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>469</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>471</v>
       </c>
@@ -6244,7 +6250,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>473</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>475</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>477</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>479</v>
       </c>
@@ -6276,7 +6282,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>481</v>
       </c>
@@ -6284,7 +6290,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>483</v>
       </c>
@@ -6292,7 +6298,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>485</v>
       </c>
@@ -6300,7 +6306,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>487</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>489</v>
       </c>
@@ -6316,7 +6322,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>491</v>
       </c>
@@ -6324,7 +6330,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>493</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>495</v>
       </c>
@@ -6358,29 +6364,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="36" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="5" max="5" width="11.109375" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="E1" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>497</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>499</v>
       </c>
@@ -6403,7 +6409,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>504</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>506</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>507</v>
       </c>
@@ -6436,7 +6442,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>508</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>509</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>510</v>
       </c>
@@ -6463,7 +6469,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>511</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>512</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>513</v>
       </c>
@@ -6487,7 +6493,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>514</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>515</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>516</v>
       </c>
@@ -6511,7 +6517,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>517</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>530</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>532</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>535</v>
       </c>
@@ -6543,7 +6549,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>537</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>538</v>
       </c>
@@ -6559,7 +6565,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>540</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>542</v>
       </c>
@@ -6575,7 +6581,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>543</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>544</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>545</v>
       </c>
@@ -6599,7 +6605,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>84</v>
       </c>
@@ -6607,7 +6613,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>546</v>
       </c>
@@ -6615,7 +6621,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>547</v>
       </c>
@@ -6623,7 +6629,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>548</v>
       </c>
@@ -6631,7 +6637,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>549</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>550</v>
       </c>
@@ -6647,7 +6653,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>551</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>552</v>
       </c>
@@ -6663,7 +6669,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>553</v>
       </c>
@@ -6671,7 +6677,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>554</v>
       </c>
@@ -6679,7 +6685,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>555</v>
       </c>
@@ -6687,7 +6693,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>556</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>557</v>
       </c>
@@ -6703,7 +6709,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>558</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>559</v>
       </c>
@@ -6719,7 +6725,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>560</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>561</v>
       </c>
@@ -6735,7 +6741,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>562</v>
       </c>
@@ -6743,7 +6749,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>563</v>
       </c>
@@ -6751,7 +6757,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>564</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>565</v>
       </c>
@@ -6767,7 +6773,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>566</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>567</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>568</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>569</v>
       </c>
@@ -6799,7 +6805,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>570</v>
       </c>
@@ -6807,7 +6813,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>571</v>
       </c>
@@ -6815,7 +6821,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>572</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>573</v>
       </c>
@@ -6831,7 +6837,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>574</v>
       </c>
@@ -6839,7 +6845,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>575</v>
       </c>
@@ -6847,7 +6853,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>576</v>
       </c>
@@ -6855,7 +6861,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>577</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>578</v>
       </c>
@@ -6871,7 +6877,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>579</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>580</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>581</v>
       </c>
@@ -6895,7 +6901,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>582</v>
       </c>
@@ -6903,7 +6909,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>583</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>584</v>
       </c>
@@ -6919,7 +6925,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>585</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>586</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>587</v>
       </c>
@@ -6943,7 +6949,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>588</v>
       </c>
@@ -6951,7 +6957,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>589</v>
       </c>
@@ -6959,7 +6965,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>590</v>
       </c>
@@ -6967,7 +6973,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>591</v>
       </c>
@@ -6975,7 +6981,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>592</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>593</v>
       </c>
@@ -6991,7 +6997,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>594</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>595</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>596</v>
       </c>
@@ -7015,7 +7021,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>597</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>598</v>
       </c>
@@ -7031,7 +7037,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>599</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>600</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>601</v>
       </c>
@@ -7055,7 +7061,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>602</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>603</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>604</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>605</v>
       </c>
@@ -7087,7 +7093,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>606</v>
       </c>
@@ -7095,7 +7101,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>607</v>
       </c>
@@ -7103,7 +7109,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>608</v>
       </c>
@@ -7111,7 +7117,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>399</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>609</v>
       </c>
@@ -7127,7 +7133,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>610</v>
       </c>
@@ -7135,7 +7141,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>611</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>612</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>613</v>
       </c>
@@ -7159,7 +7165,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>614</v>
       </c>
@@ -7167,7 +7173,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>615</v>
       </c>
@@ -7175,7 +7181,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>616</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>617</v>
       </c>
@@ -7191,7 +7197,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>618</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>619</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>620</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>621</v>
       </c>
@@ -7223,7 +7229,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>622</v>
       </c>
@@ -7231,7 +7237,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>623</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>624</v>
       </c>
@@ -7247,7 +7253,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>514</v>
       </c>
@@ -7255,7 +7261,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>625</v>
       </c>
@@ -7263,7 +7269,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>626</v>
       </c>
@@ -7271,7 +7277,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>779</v>
       </c>
@@ -7279,7 +7285,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>627</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>628</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>629</v>
       </c>
@@ -7303,7 +7309,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>630</v>
       </c>
@@ -7311,7 +7317,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>631</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>632</v>
       </c>
@@ -7327,7 +7333,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>633</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>634</v>
       </c>
@@ -7343,7 +7349,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>635</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>636</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>637</v>
       </c>
@@ -7367,7 +7373,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>638</v>
       </c>
@@ -7375,7 +7381,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>639</v>
       </c>
@@ -7383,7 +7389,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>640</v>
       </c>
@@ -7391,7 +7397,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>641</v>
       </c>
@@ -7399,7 +7405,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>642</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>643</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>644</v>
       </c>
@@ -7423,7 +7429,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>645</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>646</v>
       </c>
@@ -7439,7 +7445,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>647</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>648</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>649</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>650</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>651</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>652</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>653</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>762</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>764</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>766</v>
       </c>
@@ -7519,7 +7525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>767</v>
       </c>
@@ -7527,7 +7533,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>769</v>
       </c>
@@ -7535,7 +7541,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>771</v>
       </c>
@@ -7543,7 +7549,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>773</v>
       </c>
@@ -7551,7 +7557,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>775</v>
       </c>
@@ -7559,7 +7565,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>777</v>
       </c>
@@ -7567,7 +7573,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>780</v>
       </c>
@@ -7575,7 +7581,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>791</v>
       </c>
@@ -7583,7 +7589,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>789</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="8" t="s">
         <v>793</v>
       </c>
@@ -7599,7 +7605,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
         <v>795</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="8" t="s">
         <v>797</v>
       </c>
@@ -7615,7 +7621,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="8" t="s">
         <v>799</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>801</v>
       </c>
@@ -7631,7 +7637,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="12" t="s">
         <v>810</v>
       </c>
@@ -7639,7 +7645,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="8" t="s">
         <v>804</v>
       </c>
@@ -7647,7 +7653,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="8" t="s">
         <v>806</v>
       </c>
@@ -7655,7 +7661,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>808</v>
       </c>
@@ -7674,20 +7680,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
       <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="28.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -7695,7 +7701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>811</v>
       </c>
@@ -7703,7 +7709,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>812</v>
       </c>
@@ -7711,7 +7717,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>813</v>
       </c>
@@ -7719,7 +7725,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>814</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>815</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>816</v>
       </c>
@@ -7743,7 +7749,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>817</v>
       </c>
@@ -7751,7 +7757,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>818</v>
       </c>
@@ -7759,7 +7765,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>819</v>
       </c>
@@ -7767,7 +7773,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>820</v>
       </c>
@@ -7775,15 +7781,15 @@
         <v>944</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>821</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>822</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>823</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>824</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>825</v>
       </c>
@@ -7823,1452 +7829,1463 @@
         <v>949</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>827</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>375</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>829</v>
-      </c>
-      <c r="B24" s="13" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>831</v>
-      </c>
-      <c r="B26" s="13" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>832</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>832</v>
-      </c>
-      <c r="B27" s="13" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="B29" s="13" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="B30" s="13" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>836</v>
-      </c>
-      <c r="B31" s="13" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="B32" s="13" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="B33" s="19" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="B34" s="13" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="B35" s="19" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="B36" s="13" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="B37" s="13" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>843</v>
-      </c>
-      <c r="B38" s="13" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="B39" s="13" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="B40" s="13" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>847</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="B41" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="B42" s="13" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>848</v>
-      </c>
-      <c r="B43" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B44" s="13" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>851</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="B45" s="13" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="B46" s="13" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>852</v>
-      </c>
-      <c r="B47" s="13" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
-        <v>853</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="B50" s="13" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
-        <v>857</v>
-      </c>
-      <c r="B51" s="13" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="B52" s="13" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
-        <v>859</v>
-      </c>
-      <c r="B53" s="13" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="B54" s="13" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>861</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="B56" s="13" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="B57" s="19" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="B58" s="13" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>865</v>
-      </c>
-      <c r="B59" s="13" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>866</v>
-      </c>
-      <c r="B60" s="19" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="B61" s="13" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="B62" s="19" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="B63" s="13" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="B64" s="13" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="B65" s="13" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="B66" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="13" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="B68" s="13" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="B69" s="2" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="B70" s="13" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="B72" s="13" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="B73" s="13" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="13" t="s">
+        <v>893</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
+        <v>895</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="13" t="s">
+        <v>898</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="13" t="s">
+        <v>899</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="13" t="s">
+        <v>900</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="13" t="s">
+        <v>901</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="13" t="s">
+        <v>902</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>1151</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="B75" s="16" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
+        <v>904</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="13" t="s">
+        <v>905</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="13" t="s">
+        <v>907</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="13" t="s">
+        <v>909</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="13" t="s">
+        <v>910</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="13" t="s">
+        <v>911</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="13" t="s">
+        <v>915</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="13" t="s">
+        <v>917</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="13" t="s">
+        <v>918</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B124" s="17" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="13" t="s">
+        <v>926</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="13" t="s">
+        <v>928</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="13" t="s">
+        <v>930</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="13" t="s">
+        <v>931</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="13" t="s">
+        <v>932</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="13" t="s">
+        <v>933</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="15" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="15" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="15" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="15" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B163" s="17" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="15" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="15" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="15" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="15" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="B77" s="19" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>890</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>892</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
-        <v>893</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="13" t="s">
-        <v>895</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>897</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>898</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>899</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>900</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
-        <v>901</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
-        <v>903</v>
-      </c>
-      <c r="B100" s="19" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="16" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="15" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="13" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="13" t="s">
-        <v>904</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>906</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
-        <v>907</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
-        <v>908</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>909</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="B108" s="19" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="13" t="s">
-        <v>913</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
-        <v>914</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
-        <v>916</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
-        <v>917</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="13" t="s">
-        <v>921</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="13" t="s">
-        <v>922</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
-        <v>924</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="B122" s="19" t="s">
+      <c r="B175" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="13" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>927</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>928</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
-        <v>929</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
-        <v>930</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
-        <v>931</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
-        <v>932</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="13" t="s">
-        <v>933</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="13" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="13" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="13" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="13" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="14" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="13" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B141" s="19" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="13" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="14" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="13" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="16" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="15" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B150" s="15" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="15" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B151" s="15" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="15" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B152" s="15" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="15" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="15" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B154" s="15" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="15" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B155" s="15" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B156" s="15" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="15" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="15" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="15" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="15" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="15" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="15" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="15" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="15" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B164" s="19" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="15" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B165" s="19" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="15" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="19" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="15" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
+      <c r="B176" s="17" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
         <v>1155</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="13" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B181" s="17" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="17" t="s">
         <v>1156</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="19" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="19" t="s">
+      <c r="B185" s="17" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="17" t="s">
         <v>1159</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="19" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="19" t="s">
+      <c r="B187" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="17" t="s">
         <v>1164</v>
       </c>
-      <c r="B179" s="19" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B180" s="19" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="19" t="s">
+      <c r="B190" s="17" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="17" t="s">
         <v>1168</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B191" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="17" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="17" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="17" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="17" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B201" s="17" t="s">
         <v>1202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="19" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="19" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B183" s="19" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="B184" s="19" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="19" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B186" s="19" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="19" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B188" s="19" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="19" t="s">
-        <v>1170</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="19" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="19" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B193" s="19" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="19" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="19" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="19" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="19" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="19" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="19" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>

--- a/Vocabulary.xlsx
+++ b/Vocabulary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Irregular verbs" sheetId="4" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Lesson 1" sheetId="1" r:id="rId3"/>
     <sheet name="Lesson 2" sheetId="2" r:id="rId4"/>
     <sheet name="Lesson 3" sheetId="3" r:id="rId5"/>
+    <sheet name="Lesson 4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1552">
   <si>
     <t>rarely</t>
   </si>
@@ -3639,6 +3640,1041 @@
   </si>
   <si>
     <t>set an essay</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>зобов'язання</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>певний</t>
+  </si>
+  <si>
+    <t>probable</t>
+  </si>
+  <si>
+    <t>ймовірний</t>
+  </si>
+  <si>
+    <t>accent</t>
+  </si>
+  <si>
+    <t>announcement (n)</t>
+  </si>
+  <si>
+    <t>broadcast (v, n)</t>
+  </si>
+  <si>
+    <t>акцент</t>
+  </si>
+  <si>
+    <t>оголошення</t>
+  </si>
+  <si>
+    <t>канал</t>
+  </si>
+  <si>
+    <t>ясно</t>
+  </si>
+  <si>
+    <t>формальний (присл.)</t>
+  </si>
+  <si>
+    <t>зображення- (n)</t>
+  </si>
+  <si>
+    <t>неформальний (присл.)</t>
+  </si>
+  <si>
+    <t>переривати (v)</t>
+  </si>
+  <si>
+    <t>ЗМІ (n)</t>
+  </si>
+  <si>
+    <t>переконувати (v)</t>
+  </si>
+  <si>
+    <t>вимовляти (v)</t>
+  </si>
+  <si>
+    <t>опублікувати (v)</t>
+  </si>
+  <si>
+    <t>лаятися (v)</t>
+  </si>
+  <si>
+    <t>тип (v)</t>
+  </si>
+  <si>
+    <t>глядач (n)</t>
+  </si>
+  <si>
+    <t>веб-сайт (n)</t>
+  </si>
+  <si>
+    <t>контакт, контактувати</t>
+  </si>
+  <si>
+    <t>натиснути</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">informal </t>
+  </si>
+  <si>
+    <t>interrupt</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>whisper</t>
+  </si>
+  <si>
+    <t>шепіт, шепотіти</t>
+  </si>
+  <si>
+    <t>трансляція, транслювати</t>
+  </si>
+  <si>
+    <t>посилання, з'єднувати</t>
+  </si>
+  <si>
+    <t>пауза, зупиняти</t>
+  </si>
+  <si>
+    <t>звіт, доповідати</t>
+  </si>
+  <si>
+    <t>запит, домагатися</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>pronounce</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>сигнал, сигналізувати</t>
+  </si>
+  <si>
+    <t>swear</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>viewer</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>certainty</t>
+  </si>
+  <si>
+    <t>визначеність</t>
+  </si>
+  <si>
+    <t>secrecy</t>
+  </si>
+  <si>
+    <t>секретність</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>промова</t>
+  </si>
+  <si>
+    <t>glance at</t>
+  </si>
+  <si>
+    <t>погляд на</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>cod</t>
+  </si>
+  <si>
+    <t>fillet</t>
+  </si>
+  <si>
+    <t>herring</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>sardine</t>
+  </si>
+  <si>
+    <t>shellfish</t>
+  </si>
+  <si>
+    <t>tuna</t>
+  </si>
+  <si>
+    <t>cottage chese</t>
+  </si>
+  <si>
+    <t>margarine</t>
+  </si>
+  <si>
+    <t>milkshake</t>
+  </si>
+  <si>
+    <t>omelette</t>
+  </si>
+  <si>
+    <t>yoghurt</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>pasta</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>toast</t>
+  </si>
+  <si>
+    <t>apple pie</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>fruitcake</t>
+  </si>
+  <si>
+    <t>poppy-seed cake</t>
+  </si>
+  <si>
+    <t>pudding</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>blackcurrant</t>
+  </si>
+  <si>
+    <t>blueberry</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>melon</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>avocado</t>
+  </si>
+  <si>
+    <t>beans</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>cauliflowet</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t>green peas</t>
+  </si>
+  <si>
+    <t>green pepper</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>mashed popatoes</t>
+  </si>
+  <si>
+    <t>mushrooms</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>parsley</t>
+  </si>
+  <si>
+    <t>radish</t>
+  </si>
+  <si>
+    <t>sweetcorn</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>black pepper</t>
+  </si>
+  <si>
+    <t>herbs</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>olive oil</t>
+  </si>
+  <si>
+    <t>salad dressing</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>tomato sauce</t>
+  </si>
+  <si>
+    <t>vinegar</t>
+  </si>
+  <si>
+    <t>fizzy drinks</t>
+  </si>
+  <si>
+    <t>sparkling water</t>
+  </si>
+  <si>
+    <t>still water</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>dry wine</t>
+  </si>
+  <si>
+    <t>fatty</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>rare steak</t>
+  </si>
+  <si>
+    <t>sour milk</t>
+  </si>
+  <si>
+    <t>spicy</t>
+  </si>
+  <si>
+    <t>stale bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong tea </t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>weak tea</t>
+  </si>
+  <si>
+    <t>well-done steak</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>barbecue</t>
+  </si>
+  <si>
+    <t>boil</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>chop up</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>fry</t>
+  </si>
+  <si>
+    <t>frying pan</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>melt</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>saucepan</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>stir</t>
+  </si>
+  <si>
+    <t>bag of flour</t>
+  </si>
+  <si>
+    <t>bar of chocolate</t>
+  </si>
+  <si>
+    <t>can of cola</t>
+  </si>
+  <si>
+    <t>carton of milk</t>
+  </si>
+  <si>
+    <t>glass of water</t>
+  </si>
+  <si>
+    <t>jar of jam</t>
+  </si>
+  <si>
+    <t>loaf of bread</t>
+  </si>
+  <si>
+    <t>packet of crisps</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>eat out</t>
+  </si>
+  <si>
+    <t>have a meal</t>
+  </si>
+  <si>
+    <t>have lunch</t>
+  </si>
+  <si>
+    <t>light snack</t>
+  </si>
+  <si>
+    <t>lunchbox</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>cafeteria</t>
+  </si>
+  <si>
+    <t>cutlery</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>main course</t>
+  </si>
+  <si>
+    <t>napkin</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>serviette</t>
+  </si>
+  <si>
+    <t>takeaway</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>be on a diet</t>
+  </si>
+  <si>
+    <t>book a table</t>
+  </si>
+  <si>
+    <t>clear the table</t>
+  </si>
+  <si>
+    <t>cook a meal</t>
+  </si>
+  <si>
+    <t>healthy food</t>
+  </si>
+  <si>
+    <t>junk food</t>
+  </si>
+  <si>
+    <t>lay the table</t>
+  </si>
+  <si>
+    <t>leave a tip</t>
+  </si>
+  <si>
+    <t>lose weight</t>
+  </si>
+  <si>
+    <t>low in calories</t>
+  </si>
+  <si>
+    <t>put on weight</t>
+  </si>
+  <si>
+    <t>бекон</t>
+  </si>
+  <si>
+    <t>яловичина</t>
+  </si>
+  <si>
+    <t>шинка</t>
+  </si>
+  <si>
+    <t>свинина</t>
+  </si>
+  <si>
+    <t>тріска</t>
+  </si>
+  <si>
+    <t>філе</t>
+  </si>
+  <si>
+    <t>оселедець</t>
+  </si>
+  <si>
+    <t>лосось</t>
+  </si>
+  <si>
+    <t>молюски</t>
+  </si>
+  <si>
+    <t>тунець</t>
+  </si>
+  <si>
+    <t>маргарин</t>
+  </si>
+  <si>
+    <t>молочний коктейль</t>
+  </si>
+  <si>
+    <t>омлет</t>
+  </si>
+  <si>
+    <t>йогурт</t>
+  </si>
+  <si>
+    <t>локшина</t>
+  </si>
+  <si>
+    <t>макарони</t>
+  </si>
+  <si>
+    <t>тост</t>
+  </si>
+  <si>
+    <t>яблучний пиріг</t>
+  </si>
+  <si>
+    <t>печиво</t>
+  </si>
+  <si>
+    <t>фруктовий пиріг</t>
+  </si>
+  <si>
+    <t>торт з маку</t>
+  </si>
+  <si>
+    <t>пудинг</t>
+  </si>
+  <si>
+    <t>абрикос</t>
+  </si>
+  <si>
+    <t>банан</t>
+  </si>
+  <si>
+    <t>чорна смородина</t>
+  </si>
+  <si>
+    <t>чорниця</t>
+  </si>
+  <si>
+    <t>кокос</t>
+  </si>
+  <si>
+    <t>виноград</t>
+  </si>
+  <si>
+    <t>диня</t>
+  </si>
+  <si>
+    <t>персик</t>
+  </si>
+  <si>
+    <t>груша</t>
+  </si>
+  <si>
+    <t>ананас</t>
+  </si>
+  <si>
+    <t>слива</t>
+  </si>
+  <si>
+    <t>полуниця</t>
+  </si>
+  <si>
+    <t>кавун</t>
+  </si>
+  <si>
+    <t>авокадо</t>
+  </si>
+  <si>
+    <t>квасоля</t>
+  </si>
+  <si>
+    <t>брокколі</t>
+  </si>
+  <si>
+    <t>капуста</t>
+  </si>
+  <si>
+    <t>морква</t>
+  </si>
+  <si>
+    <t>селера</t>
+  </si>
+  <si>
+    <t>огірок</t>
+  </si>
+  <si>
+    <t>зелений горошок</t>
+  </si>
+  <si>
+    <t>зелений перець</t>
+  </si>
+  <si>
+    <t>салат</t>
+  </si>
+  <si>
+    <t>гриби</t>
+  </si>
+  <si>
+    <t>цибуля</t>
+  </si>
+  <si>
+    <t>петрушка</t>
+  </si>
+  <si>
+    <t>редька</t>
+  </si>
+  <si>
+    <t>Солодка кукурудза</t>
+  </si>
+  <si>
+    <t>помідор</t>
+  </si>
+  <si>
+    <t>чорний перець</t>
+  </si>
+  <si>
+    <t>майонез</t>
+  </si>
+  <si>
+    <t>гірчиця</t>
+  </si>
+  <si>
+    <t>оливкова олія</t>
+  </si>
+  <si>
+    <t>заправка для салату</t>
+  </si>
+  <si>
+    <t>спеції</t>
+  </si>
+  <si>
+    <t>томатний соус</t>
+  </si>
+  <si>
+    <t>оцет</t>
+  </si>
+  <si>
+    <t>газовані напої</t>
+  </si>
+  <si>
+    <t>газована вода</t>
+  </si>
+  <si>
+    <t>стояча вода</t>
+  </si>
+  <si>
+    <t>смачний</t>
+  </si>
+  <si>
+    <t>сухе вино</t>
+  </si>
+  <si>
+    <t>жирний</t>
+  </si>
+  <si>
+    <t>помірний</t>
+  </si>
+  <si>
+    <t>кефір</t>
+  </si>
+  <si>
+    <t>гострий</t>
+  </si>
+  <si>
+    <t>солодкий</t>
+  </si>
+  <si>
+    <t>слабкий чай</t>
+  </si>
+  <si>
+    <t>випікати</t>
+  </si>
+  <si>
+    <t>барбекю</t>
+  </si>
+  <si>
+    <t>бити</t>
+  </si>
+  <si>
+    <t>кип'ятити</t>
+  </si>
+  <si>
+    <t>чаша</t>
+  </si>
+  <si>
+    <t>кришити</t>
+  </si>
+  <si>
+    <t>вирізати</t>
+  </si>
+  <si>
+    <t>готувати</t>
+  </si>
+  <si>
+    <t>заморозити</t>
+  </si>
+  <si>
+    <t>обсмажувати</t>
+  </si>
+  <si>
+    <t>пательня</t>
+  </si>
+  <si>
+    <t>інгредієнт</t>
+  </si>
+  <si>
+    <t>чайник</t>
+  </si>
+  <si>
+    <t>суміш</t>
+  </si>
+  <si>
+    <t>духовка</t>
+  </si>
+  <si>
+    <t>рецепт</t>
+  </si>
+  <si>
+    <t>каструля</t>
+  </si>
+  <si>
+    <t>нарізати</t>
+  </si>
+  <si>
+    <t>перемішувати</t>
+  </si>
+  <si>
+    <t>мішок борошна</t>
+  </si>
+  <si>
+    <t>плитка шоколаду</t>
+  </si>
+  <si>
+    <t>банка кола</t>
+  </si>
+  <si>
+    <t>Коробка молока</t>
+  </si>
+  <si>
+    <t>Стакан води</t>
+  </si>
+  <si>
+    <t>банка варення</t>
+  </si>
+  <si>
+    <t>буханка хліба</t>
+  </si>
+  <si>
+    <t>пакет чіпсів</t>
+  </si>
+  <si>
+    <t>курс</t>
+  </si>
+  <si>
+    <t>поїсти</t>
+  </si>
+  <si>
+    <t>обідати</t>
+  </si>
+  <si>
+    <t>легка закуска</t>
+  </si>
+  <si>
+    <t>кафетерія</t>
+  </si>
+  <si>
+    <t>столові прилади</t>
+  </si>
+  <si>
+    <t>десерт</t>
+  </si>
+  <si>
+    <t>блюдо</t>
+  </si>
+  <si>
+    <t>Головна страва</t>
+  </si>
+  <si>
+    <t>серветка</t>
+  </si>
+  <si>
+    <t>наказ</t>
+  </si>
+  <si>
+    <t>подавати</t>
+  </si>
+  <si>
+    <t>бути на дієті</t>
+  </si>
+  <si>
+    <t>замовити столик</t>
+  </si>
+  <si>
+    <t>прибирати зі столу</t>
+  </si>
+  <si>
+    <t>приготувати їжу</t>
+  </si>
+  <si>
+    <t>здорова їжа</t>
+  </si>
+  <si>
+    <t>Шкідлива їжа</t>
+  </si>
+  <si>
+    <t>залишати чайові</t>
+  </si>
+  <si>
+    <t>втратити вагу</t>
+  </si>
+  <si>
+    <t>набирати вагу</t>
+  </si>
+  <si>
+    <t>сардини</t>
+  </si>
+  <si>
+    <t>коров'ячий сир</t>
+  </si>
+  <si>
+    <t>м'ясний рулет</t>
+  </si>
+  <si>
+    <t>цвітна капуста</t>
+  </si>
+  <si>
+    <t>часник</t>
+  </si>
+  <si>
+    <t>картопляне пюре</t>
+  </si>
+  <si>
+    <t>сушені трави</t>
+  </si>
+  <si>
+    <t>сіль</t>
+  </si>
+  <si>
+    <t>недосмажений стейк</t>
+  </si>
+  <si>
+    <t>черствий хліб</t>
+  </si>
+  <si>
+    <t>міцний чай</t>
+  </si>
+  <si>
+    <t>добре засмажений стейк</t>
+  </si>
+  <si>
+    <t>спека, жар</t>
+  </si>
+  <si>
+    <t>танути, плавити</t>
+  </si>
+  <si>
+    <t>лущити</t>
+  </si>
+  <si>
+    <t>поїсти не вдома</t>
+  </si>
+  <si>
+    <t>коробка для ланчу</t>
+  </si>
+  <si>
+    <t>рахунок</t>
+  </si>
+  <si>
+    <t>на винос</t>
+  </si>
+  <si>
+    <t>чайові</t>
+  </si>
+  <si>
+    <t>накривати на стіл</t>
+  </si>
+  <si>
+    <t>низько калорійний</t>
   </si>
 </sst>
 </file>
@@ -7682,8 +8718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -9292,4 +10328,1480 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="17" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="17" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="17" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="17" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="17" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="17" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="17" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="17" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="17" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="17" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="17" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A101" s="17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A103" s="17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="17" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A105" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A106" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A107" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A108" s="17" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A109" s="17" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A110" s="17" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A111" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A112" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A113" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A114" s="17" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" s="17" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" s="17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" s="17" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="17" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A128" s="17" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A129" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A131" s="17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A132" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B132" s="17" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A133" s="17" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A134" s="17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A135" s="17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B135" s="17" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A136" s="17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A138" s="17" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A139" s="17" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A140" s="17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A141" s="17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A142" s="17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A143" s="17" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A144" s="17" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A145" s="17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="17" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A148" s="17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A149" s="17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A150" s="17" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A151" s="17" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A152" s="17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A153" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A154" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A155" s="17" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B155" s="17" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A156" s="17" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A157" s="17" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A158" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A159" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B159" s="17" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A160" s="17" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B160" s="17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A161" s="17" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A162" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A163" s="17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A165" s="17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A166" s="17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A167" s="17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A168" s="17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A169" s="17" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A170" s="17" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A171" s="17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B171" s="17" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A172" s="17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A173" s="17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A174" s="17" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A175" s="17" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A176" s="17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A177" s="17" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A178" s="17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A179" s="17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B179" s="17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A180" s="17" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A181" s="17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A182" s="17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A183" s="17" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>